--- a/rw_vaccine_details.xlsx
+++ b/rw_vaccine_details.xlsx
@@ -1266,7 +1266,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Palacio2021_CoronaVac_efficacy</t>
+          <t>Palacios2021_CoronaVac_efficacy</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr"/>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Palacio2021_CoronaVac_efficacy</t>
+          <t>Palacios2022_CoronaVac_efficacy</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr"/>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Palacio2021_CoronaVac_efficacy</t>
+          <t>Palacios2023_CoronaVac_efficacy</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr"/>

--- a/rw_vaccine_details.xlsx
+++ b/rw_vaccine_details.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB74"/>
+  <dimension ref="A1:AB70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,7 +580,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BNT162b2</t>
+          <t>mRNA1273</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -589,47 +589,51 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>95</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>90.3</v>
+        <v>89.3</v>
       </c>
       <c r="F2" t="n">
-        <v>97.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="G2" t="n">
-        <v>21720</v>
+        <v>15210</v>
       </c>
       <c r="H2" t="n">
-        <v>21728</v>
+        <v>15210</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="K2" t="n">
-        <v>14</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>56.5</v>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>27/07/2020</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>USA, Argentina, Brazil, south africa. Germany and turkey</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Confirmed Covid-19</t>
+          <t>Symptomatic covid-19</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -640,12 +644,12 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1-incidence rate ratio</t>
+          <t>1-hazard ratio</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Clopper-Pearson</t>
+          <t>Cox proportional hazards model</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -660,18 +664,18 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Polack2021_safety_and_efficacy_PFizer_BioNtech</t>
+          <t>Baden2021_efficacy_and_safety_mRNA_vaccine</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>95.6774208216811</v>
+        <v>94.05405405405406</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.79023089062545</v>
+        <v>89.08026201020709</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.97120964370137</v>
+        <v>96.76235151199067</v>
       </c>
     </row>
     <row r="3">
@@ -680,7 +684,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sputnik V</t>
+          <t>mRNA1273</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -689,61 +693,69 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>91.59999999999999</v>
-      </c>
-      <c r="E3" t="n">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>95.2</v>
+        <v>100</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>16501</v>
+        <v>15210</v>
       </c>
       <c r="H3" t="n">
-        <v>5476</v>
-      </c>
-      <c r="I3" t="n">
-        <v>16</v>
+        <v>15210</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="J3" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" s="2" t="n">
-        <v>44021</v>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>27/07/2020</t>
+        </is>
       </c>
       <c r="O3" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Confirmed Covid-19</t>
+          <t>Severe Covid-19</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Symptomatic</t>
+          <t>Severe</t>
         </is>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1-Odd ratio</t>
+          <t>1-hazard ratio</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Baptista-Pike method</t>
+          <t>Cox proportional hazards model</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -758,19 +770,13 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Logunov2021_safety_and_efficacy_SputnikV</t>
+          <t>Baden2021_efficacy_and_safety_mRNA_vaccine</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="n">
-        <v>91.43590515530829</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>85.17479466893981</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>95.05276865506791</v>
-      </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -778,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sputnik V</t>
+          <t>ZF2001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -787,68 +793,66 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>75.7</v>
       </c>
       <c r="E4" t="n">
-        <v>94.40000000000001</v>
+        <v>71</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>79.8</v>
       </c>
       <c r="G4" t="n">
-        <v>14964</v>
+        <v>12625</v>
       </c>
       <c r="H4" t="n">
-        <v>4902</v>
+        <v>12568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" s="2" t="n">
-        <v>44021</v>
+        <v>44177</v>
       </c>
       <c r="O4" t="n">
-        <v>78</v>
+        <v>365</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Uzbekistan, Pakistan, Indonesia and Ecuador</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Severe</t>
+          <t>Symptomatic</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Severe</t>
+          <t>Symptomatic</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>1-Odd ratio</t>
+          <t>1 - Incidence rate ratio</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Baptista-Pike method</t>
+          <t>Poisson regression</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Phase 3 clinical trial</t>
+          <t>Phase 3</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -858,20 +862,20 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Logunov2021_safety_and_efficacy_SputnikV</t>
+          <t>Dai2022_efficacy_and_safety_of_the_RBD-Dimer-based</t>
         </is>
       </c>
       <c r="Y4" t="n">
         <v>2</v>
       </c>
       <c r="Z4" t="n">
-        <v>100</v>
+        <v>72.88161147149196</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>67.72284375778338</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>77.21586775289558</v>
       </c>
     </row>
     <row r="5">
@@ -880,7 +884,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ad26.COV2.S</t>
+          <t>ZF2001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -889,70 +893,66 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>66.90000000000001</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>59</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>73.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="G5" t="n">
-        <v>19630</v>
+        <v>12625</v>
       </c>
       <c r="H5" t="n">
-        <v>19691</v>
+        <v>12568</v>
       </c>
       <c r="I5" t="n">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>351</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>21/09/2020</t>
-        </is>
+      <c r="N5" s="2" t="n">
+        <v>44177</v>
       </c>
       <c r="O5" t="n">
-        <v>123</v>
+        <v>365</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>USA, South africa, Brazil, Colombia, Argentina, Peru, Chile, Mexico</t>
+          <t>Uzbekistan, Pakistan, Indonesia and Ecuador</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Symptomatic infection</t>
+          <t>Severe-Critical</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Symptomatic</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>1 - relative risk</t>
+          <t>1 - Incidence rate ratio</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Exact possion regression</t>
+          <t>Poisson regression</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Phase 3 clinical trial</t>
+          <t>Phase 3</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -962,18 +962,18 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Sadoff2021_Safety_and_efficacy.pdf; https://www.fda.gov/media/146217/download</t>
+          <t>Dai2022_efficacy_and_safety_of_the_RBD-Dimer-based</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>66.56308371540159</v>
+        <v>86.10950955560672</v>
       </c>
       <c r="AA5" t="n">
-        <v>58.81975192236399</v>
+        <v>67.37701053188043</v>
       </c>
       <c r="AB5" t="n">
-        <v>72.85039739159764</v>
+        <v>94.08559031739459</v>
       </c>
     </row>
     <row r="6">
@@ -982,7 +982,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ad26.COV2.S</t>
+          <t>ZF2001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -991,70 +991,66 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>64.8</v>
+        <v>86.5</v>
       </c>
       <c r="E6" t="n">
-        <v>55.8</v>
+        <v>38.9</v>
       </c>
       <c r="F6" t="n">
-        <v>72.2</v>
+        <v>98.5</v>
       </c>
       <c r="G6" t="n">
-        <v>19630</v>
+        <v>12625</v>
       </c>
       <c r="H6" t="n">
-        <v>19691</v>
+        <v>12568</v>
       </c>
       <c r="I6" t="n">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>288</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>21/09/2020</t>
-        </is>
+      <c r="N6" s="2" t="n">
+        <v>44177</v>
       </c>
       <c r="O6" t="n">
-        <v>123</v>
+        <v>365</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>USA, South africa, Brazil, Colombia, Argentina, Peru, Chile, Mexico</t>
+          <t>Uzbekistan, Pakistan, Indonesia and Ecuador</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Symptomatic -moderate</t>
+          <t>Death</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Death</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1 - relative risk</t>
+          <t>1 - Incidence rate ratio</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Exact possion regression</t>
+          <t>Poisson regression</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Phase 3 clinical trial</t>
+          <t>Phase 3</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1064,18 +1060,18 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Sadoff2021_Safety_and_efficacy.pdf; https://www.fda.gov/media/146217/download</t>
+          <t>Dai2022_efficacy_and_safety_of_the_RBD-Dimer-based</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>64.4732764476142</v>
+        <v>83.4085808580858</v>
       </c>
       <c r="AA6" t="n">
-        <v>55.5104771873441</v>
+        <v>25.882132651922</v>
       </c>
       <c r="AB6" t="n">
-        <v>71.630442257551</v>
+        <v>96.28598070894419</v>
       </c>
     </row>
     <row r="7">
@@ -1084,77 +1080,75 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ad26.COV2.S</t>
+          <t>ZF2001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SARS-CoV-2</t>
+          <t>Delta</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>76.7</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>54.6</v>
+        <v>70</v>
       </c>
       <c r="F7" t="n">
-        <v>89.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="G7" t="n">
-        <v>19630</v>
+        <v>12625</v>
       </c>
       <c r="H7" t="n">
-        <v>19691</v>
+        <v>12568</v>
       </c>
       <c r="I7" t="n">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="J7" t="n">
-        <v>60</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>21/09/2020</t>
-        </is>
+      <c r="N7" s="2" t="n">
+        <v>44177</v>
       </c>
       <c r="O7" t="n">
-        <v>123</v>
+        <v>365</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>USA, South africa, Brazil, Colombia, Argentina, Peru, Chile, Mexico</t>
+          <t>Uzbekistan, Pakistan, Indonesia and Ecuador</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Symptomatic -Severe-critical</t>
+          <t>Death</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Critical</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr"/>
+          <t>Symptomatic</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>1 - relative risk</t>
+          <t>1 - Incidence rate ratio</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Exact possion regression</t>
+          <t>Poisson regression</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Phase 3 clinical trial</t>
+          <t>Phase 3</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1164,18 +1158,18 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Sadoff2021_Safety_and_efficacy.pdf; https://www.fda.gov/media/146217/download</t>
+          <t>Dai2022_efficacy_and_safety_of_the_RBD-Dimer-based</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>76.59415860078111</v>
+        <v>73.30542618507661</v>
       </c>
       <c r="AA7" t="n">
-        <v>58.13734470125546</v>
+        <v>66.6060670704175</v>
       </c>
       <c r="AB7" t="n">
-        <v>86.91355319685567</v>
+        <v>78.66078629722809</v>
       </c>
     </row>
     <row r="8">
@@ -1184,56 +1178,52 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CoronaVac</t>
+          <t>ZF2001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SARS-CoV-2</t>
+          <t>Alpha</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>50.7</v>
+        <v>88.3</v>
       </c>
       <c r="E8" t="n">
-        <v>35.7</v>
+        <v>66.8</v>
       </c>
       <c r="F8" t="n">
-        <v>62.2</v>
+        <v>97</v>
       </c>
       <c r="G8" t="n">
-        <v>4953</v>
+        <v>12625</v>
       </c>
       <c r="H8" t="n">
-        <v>4870</v>
+        <v>12568</v>
       </c>
       <c r="I8" t="n">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>168</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>21/07/2020</t>
-        </is>
+      <c r="N8" s="2" t="n">
+        <v>44177</v>
       </c>
       <c r="O8" t="n">
-        <v>148</v>
+        <v>365</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Uzbekistan, Pakistan, Indonesia and Ecuador</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Symptomatic covid-19</t>
+          <t>Death</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1242,21 +1232,21 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>1-hazard ratio</t>
+          <t>1 - Incidence rate ratio</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>Clopper-Pearson</t>
+          <t>Poisson regression</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>Phase 3 clinical trial</t>
+          <t>Phase 3</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -1266,18 +1256,18 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>Palacios2021_CoronaVac_efficacy</t>
+          <t>Dai2022_efficacy_and_safety_of_the_RBD-Dimer-based</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>50.25261265418747</v>
+        <v>87.15503034174385</v>
       </c>
       <c r="AA8" t="n">
-        <v>35.61832273629254</v>
+        <v>63.62188125253424</v>
       </c>
       <c r="AB8" t="n">
-        <v>61.56045240018346</v>
+        <v>95.46449208473663</v>
       </c>
     </row>
     <row r="9">
@@ -1286,79 +1276,75 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CoronaVac</t>
+          <t>ZF2001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SARS-CoV-2</t>
+          <t>Kappa</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>83.7</v>
+        <v>75.2</v>
       </c>
       <c r="E9" t="n">
-        <v>58</v>
+        <v>55.3</v>
       </c>
       <c r="F9" t="n">
-        <v>93.7</v>
+        <v>87</v>
       </c>
       <c r="G9" t="n">
-        <v>4953</v>
+        <v>12625</v>
       </c>
       <c r="H9" t="n">
-        <v>4870</v>
+        <v>12568</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>10</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>21/07/2020</t>
-        </is>
+      <c r="N9" s="2" t="n">
+        <v>44177</v>
       </c>
       <c r="O9" t="n">
-        <v>148</v>
+        <v>365</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Uzbekistan, Pakistan, Indonesia and Ecuador</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Symptomatic- Moderate</t>
+          <t>Death</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Symptomatic</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>1-hazard ratio</t>
+          <t>1 - Incidence rate ratio</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>Clopper-Pearson</t>
+          <t>Poisson regression</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>Phase 3 clinical trial</t>
+          <t>Phase 3</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1368,18 +1354,18 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Palacios2022_CoronaVac_efficacy</t>
+          <t>Dai2022_efficacy_and_safety_of_the_RBD-Dimer-based</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>100</v>
+        <v>71.82589202316458</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>50.04620142982235</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>84.10970971156001</v>
       </c>
     </row>
     <row r="10">
@@ -1388,79 +1374,75 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CoronaVac</t>
+          <t>ZF2001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SARS-CoV-2</t>
+          <t>Mixed variants</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>100</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>56.4</v>
+        <v>60.1</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>80.5</v>
       </c>
       <c r="G10" t="n">
-        <v>4953</v>
+        <v>12625</v>
       </c>
       <c r="H10" t="n">
-        <v>4870</v>
+        <v>12568</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>21/07/2020</t>
-        </is>
+      <c r="N10" s="2" t="n">
+        <v>44177</v>
       </c>
       <c r="O10" t="n">
-        <v>148</v>
+        <v>365</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Uzbekistan, Pakistan, Indonesia and Ecuador</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Symptomatic- Severe</t>
+          <t>Death</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Severe</t>
+          <t>Symptomatic</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>1-hazard ratio</t>
+          <t>1 - Incidence rate ratio</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>Clopper-Pearson</t>
+          <t>Poisson regression</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>Phase 3 clinical trial</t>
+          <t>Phase 3</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -1470,18 +1452,18 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Palacios2023_CoronaVac_efficacy</t>
+          <t>Dai2022_efficacy_and_safety_of_the_RBD-Dimer-based</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>100</v>
+        <v>68.98125986511694</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>56.35839106041583</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>77.9530988216455</v>
       </c>
     </row>
     <row r="11">
@@ -1490,7 +1472,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>mRNA1273</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1499,42 +1481,38 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>94.09999999999999</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>89.3</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>96.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>15210</v>
+        <v>19714</v>
       </c>
       <c r="H11" t="n">
-        <v>15210</v>
+        <v>9868</v>
       </c>
       <c r="I11" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J11" t="n">
-        <v>185</v>
+        <v>63</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M11" t="n">
-        <v>56.5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>27/07/2020</t>
+          <t>27/12/2020</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1543,7 +1521,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Symptomatic covid-19</t>
+          <t>Infection</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1554,12 +1532,12 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
-          <t>1-hazard ratio</t>
+          <t>1 - relative risk</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>Clopper-Pearson</t>
+          <t>Poisson regression with robust error variance</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1574,18 +1552,18 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Baden2021_efficacy_and_safety_mRNA_vaccine</t>
+          <t>Dunkle2022_Efficacy_and_Safety_of_NVX_CoV_2373</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>94.05405405405406</v>
+        <v>88.87648935330785</v>
       </c>
       <c r="AA11" t="n">
-        <v>89.08026201020709</v>
+        <v>80.1605085173896</v>
       </c>
       <c r="AB11" t="n">
-        <v>96.76235151199067</v>
+        <v>93.76332356020683</v>
       </c>
     </row>
     <row r="12">
@@ -1594,7 +1572,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>mRNA1273</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1605,42 +1583,36 @@
       <c r="D12" t="n">
         <v>100</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="E12" t="n">
+        <v>87</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>15210</v>
+        <v>19714</v>
       </c>
       <c r="H12" t="n">
-        <v>15210</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>9868</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>27/07/2020</t>
+          <t>27/12/2020</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1649,7 +1621,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Severe Covid-19</t>
+          <t>Severe</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1660,12 +1632,12 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
         <is>
-          <t>1-hazard ratio</t>
+          <t>1 - relative risk</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>Clopper-Pearson</t>
+          <t>Poisson regression with robust error variance</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1680,13 +1652,19 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Baden2021_efficacy_and_safety_mRNA_vaccine</t>
+          <t>Dunkle2022_Efficacy_and_Safety_of_NVX_CoV_2373</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
+      <c r="Z12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1694,7 +1672,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BBIBP-CorV</t>
+          <t>BBV152</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1703,48 +1681,42 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>78.09999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="E13" t="n">
-        <v>64.8</v>
+        <v>65.2</v>
       </c>
       <c r="F13" t="n">
-        <v>86.3</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>13465</v>
+        <v>8471</v>
       </c>
       <c r="H13" t="n">
-        <v>13458</v>
+        <v>8502</v>
       </c>
       <c r="I13" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J13" t="n">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
       </c>
-      <c r="L13" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="M13" t="n">
-        <v>44.7</v>
-      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>20/12/2020</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>16/11/2020</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>52</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>UAE, Bahrain</t>
+          <t>India</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1760,7 +1732,7 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr">
         <is>
-          <t>1-incidence rate ratio</t>
+          <t>1- attack rate</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -1780,18 +1752,18 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Kaabi2021_Effect_of_2_inactivated_SARS-CoV-2_vaccines_on_Symptomatic</t>
+          <t>Ella2021_efficacy_safety_and_lot_to_lot_immunogenicity_of_an_inactivated</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="n">
-        <v>77.90622862391776</v>
+        <v>77.27563295861796</v>
       </c>
       <c r="AA13" t="n">
-        <v>64.57870538837352</v>
+        <v>64.64351915948723</v>
       </c>
       <c r="AB13" t="n">
-        <v>86.21917298702097</v>
+        <v>85.3945628876123</v>
       </c>
     </row>
     <row r="14">
@@ -1800,7 +1772,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Vero cells</t>
+          <t>BBV152</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1809,64 +1781,58 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>72.8</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>58.1</v>
+        <v>57.1</v>
       </c>
       <c r="F14" t="n">
-        <v>82.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="G14" t="n">
-        <v>13459</v>
+        <v>8471</v>
       </c>
       <c r="H14" t="n">
-        <v>13458</v>
+        <v>8502</v>
       </c>
       <c r="I14" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
       </c>
-      <c r="L14" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>44.7</v>
-      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>20/12/2020</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>16/11/2020</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>52</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>UAE, Bahrain</t>
+          <t>India</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Symptomatic covid-19</t>
+          <t>Symptomatic- Severe</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Symptomatic</t>
+          <t>Severe</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
         <is>
-          <t>1-incidence rate ratio</t>
+          <t>1- attack rate</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -1886,18 +1852,18 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Kaabi2021_Effect_of_2_inactivated_SARS-CoV-2_vaccines_on_Symptomatic</t>
+          <t>Ella2021_efficacy_safety_and_lot_to_lot_immunogenicity_of_an_inactivated</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="n">
-        <v>72.63361241352881</v>
+        <v>93.30893637114862</v>
       </c>
       <c r="AA14" t="n">
-        <v>57.79799353481101</v>
+        <v>49.35560766084289</v>
       </c>
       <c r="AB14" t="n">
-        <v>82.25394401209994</v>
+        <v>99.11598638235171</v>
       </c>
     </row>
     <row r="15">
@@ -1906,7 +1872,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BBIBP-CorV</t>
+          <t>BBV152</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1915,31 +1881,25 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>63.6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>29</v>
+      </c>
+      <c r="F15" t="n">
+        <v>82.40000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>13465</v>
+        <v>3248</v>
       </c>
       <c r="H15" t="n">
-        <v>13458</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>3041</v>
+      </c>
+      <c r="I15" t="n">
+        <v>13</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
@@ -1948,33 +1908,31 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>20/12/2020</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>16/11/2020</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>52</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>UAE, Bahrain</t>
+          <t>India</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Incident severe</t>
+          <t>Asymptotic Infection</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Severe</t>
+          <t>Asymptomatic</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
-          <t>1-incidence rate ratio</t>
+          <t>1- attack rate</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -1994,13 +1952,19 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>Kaabi2021_Effect_of_2_inactivated_SARS-CoV-2_vaccines_on_Symptomatic</t>
+          <t>Ella2021_efficacy_safety_and_lot_to_lot_immunogenicity_of_an_inactivated</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
+      <c r="Z15" t="n">
+        <v>63.11669652186893</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>30.05841761445521</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>80.5497955713814</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2008,40 +1972,34 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Vero cells</t>
+          <t>BBV152</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SARS-CoV-2</t>
+          <t>Mixed variants</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>100</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>70.8</v>
+      </c>
+      <c r="E16" t="n">
+        <v>50</v>
+      </c>
+      <c r="F16" t="n">
+        <v>83.8</v>
       </c>
       <c r="G16" t="n">
-        <v>13459</v>
+        <v>8471</v>
       </c>
       <c r="H16" t="n">
-        <v>13458</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>8502</v>
+      </c>
+      <c r="I16" t="n">
+        <v>18</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="K16" t="n">
         <v>2</v>
@@ -2050,33 +2008,31 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>20/12/2020</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+          <t>16/11/2020</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>52</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>UAE, Bahrain</t>
+          <t>India</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Incident severe</t>
+          <t>Symptomatic covid-19</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Severe</t>
+          <t>Symptomatic</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr">
         <is>
-          <t>1-incidence rate ratio</t>
+          <t>1- attack rate</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
@@ -2096,13 +2052,19 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Kaabi2021_Effect_of_2_inactivated_SARS-CoV-2_vaccines_on_Symptomatic</t>
+          <t>Ella2021_efficacy_safety_and_lot_to_lot_immunogenicity_of_an_inactivated</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
+      <c r="Z16" t="n">
+        <v>70.38381672475622</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>49.94131107243324</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>82.47820047660475</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2115,17 +2077,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SARS-CoV-2</t>
+          <t>Delta</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>77.8</v>
+        <v>65.2</v>
       </c>
       <c r="E17" t="n">
-        <v>65.2</v>
+        <v>33.1</v>
       </c>
       <c r="F17" t="n">
-        <v>86.40000000000001</v>
+        <v>83</v>
       </c>
       <c r="G17" t="n">
         <v>8471</v>
@@ -2134,10 +2096,10 @@
         <v>8502</v>
       </c>
       <c r="I17" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J17" t="n">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="K17" t="n">
         <v>2</v>
@@ -2195,13 +2157,13 @@
       </c>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="n">
-        <v>77.27563295861796</v>
+        <v>64.73628628037788</v>
       </c>
       <c r="AA17" t="n">
-        <v>64.64351915948723</v>
+        <v>33.7081398936618</v>
       </c>
       <c r="AB17" t="n">
-        <v>85.3945628876123</v>
+        <v>81.24159582632423</v>
       </c>
     </row>
     <row r="18">
@@ -2215,14 +2177,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SARS-CoV-2</t>
+          <t>Kappa</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>93.40000000000001</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>57.1</v>
+        <v>30.4</v>
       </c>
       <c r="F18" t="n">
         <v>99.8</v>
@@ -2237,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>2</v>
@@ -2259,12 +2221,12 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>Symptomatic- Severe</t>
+          <t>Symptomatic covid-19</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Severe</t>
+          <t>Symptomatic</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
@@ -2295,13 +2257,13 @@
       </c>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="n">
-        <v>93.30893637114862</v>
+        <v>89.96340455672294</v>
       </c>
       <c r="AA18" t="n">
-        <v>49.35560766084289</v>
+        <v>21.61104162628719</v>
       </c>
       <c r="AB18" t="n">
-        <v>99.11598638235171</v>
+        <v>98.7149561598743</v>
       </c>
     </row>
     <row r="19">
@@ -2310,77 +2272,79 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BBV152</t>
+          <t>AZD1222</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SARS-CoV-2</t>
+          <t>Beta</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>63.6</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>29</v>
+        <v>43.6</v>
       </c>
       <c r="F19" t="n">
-        <v>82.40000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="G19" t="n">
-        <v>3248</v>
+        <v>4244</v>
       </c>
       <c r="H19" t="n">
-        <v>3041</v>
+        <v>4290</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
-        <v>33</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>16/11/2020</t>
+          <t>31/05/2020</t>
         </is>
       </c>
       <c r="O19" t="n">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Asymptotic Infection</t>
+          <t>Symptomatic</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Asymptomatic</t>
+          <t>Symptomatic</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr">
         <is>
-          <t>1- attack rate</t>
+          <t>1 - relative risk</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>Clopper-Pearson</t>
+          <t>Poisson regression</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Phase 3 clinical trial</t>
+          <t>Post Phase 3 study</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -2390,18 +2354,18 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Ella2021_efficacy_safety_and_lot_to_lot_immunogenicity_of_an_inactivated</t>
+          <t>Emary2021_Efficacy of ChAdOx1 nCoV-19 (AZD1222) vaccine against</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="n">
-        <v>63.11669652186893</v>
+        <v>69.67483506126295</v>
       </c>
       <c r="AA19" t="n">
-        <v>30.05841761445521</v>
+        <v>42.27468888425425</v>
       </c>
       <c r="AB19" t="n">
-        <v>80.5497955713814</v>
+        <v>84.06910918647674</v>
       </c>
     </row>
     <row r="20">
@@ -2410,56 +2374,58 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BBV152</t>
+          <t>AZD1222</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mixed variants</t>
+          <t>Non beta</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>70.8</v>
+        <v>81.5</v>
       </c>
       <c r="E20" t="n">
-        <v>50</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>83.8</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>8471</v>
+        <v>4244</v>
       </c>
       <c r="H20" t="n">
-        <v>8502</v>
+        <v>4290</v>
       </c>
       <c r="I20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J20" t="n">
-        <v>61</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2</v>
+        <v>80</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>16/11/2020</t>
+          <t>31/05/2020</t>
         </is>
       </c>
       <c r="O20" t="n">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Symptomatic covid-19</t>
+          <t>Symptomatic</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -2470,17 +2436,17 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>
-          <t>1- attack rate</t>
+          <t>1 - relative risk</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>Clopper-Pearson</t>
+          <t>Poisson regression</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Phase 3 clinical trial</t>
+          <t>Post Phase 3 study</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -2490,18 +2456,18 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>Ella2021_efficacy_safety_and_lot_to_lot_immunogenicity_of_an_inactivated</t>
+          <t>Emary2021_Efficacy of ChAdOx1 nCoV-19 (AZD1222) vaccine against</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="n">
-        <v>70.38381672475622</v>
+        <v>81.04677191328935</v>
       </c>
       <c r="AA20" t="n">
-        <v>49.94131107243324</v>
+        <v>67.15445679650007</v>
       </c>
       <c r="AB20" t="n">
-        <v>82.47820047660475</v>
+        <v>89.06320858567504</v>
       </c>
     </row>
     <row r="21">
@@ -2510,56 +2476,56 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BBV152</t>
+          <t>AZD1222</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Delta</t>
+          <t>SARS-CoV-2</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>65.2</v>
+        <v>74</v>
       </c>
       <c r="E21" t="n">
-        <v>33.1</v>
+        <v>65.3</v>
       </c>
       <c r="F21" t="n">
-        <v>83</v>
+        <v>80.5</v>
       </c>
       <c r="G21" t="n">
-        <v>8471</v>
+        <v>17662</v>
       </c>
       <c r="H21" t="n">
-        <v>8502</v>
+        <v>8550</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="J21" t="n">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>16/11/2020</t>
+          <t>28/08/2020</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>US,Chile and Peru</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>Symptomatic covid-19</t>
+          <t>Symptomatic infection</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2570,12 +2536,12 @@
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
-          <t>1- attack rate</t>
+          <t>1 - relative risk</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>Clopper-Pearson</t>
+          <t>Poisson regression with robust error variance</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -2590,18 +2556,18 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>Ella2021_efficacy_safety_and_lot_to_lot_immunogenicity_of_an_inactivated</t>
+          <t>Falsey2021_phase3_safety_and_efficacy_of_AZD1222</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="n">
-        <v>64.73628628037788</v>
+        <v>72.81647692133481</v>
       </c>
       <c r="AA21" t="n">
-        <v>33.7081398936618</v>
+        <v>63.83440874587205</v>
       </c>
       <c r="AB21" t="n">
-        <v>81.24159582632423</v>
+        <v>79.56776313220153</v>
       </c>
     </row>
     <row r="22">
@@ -2610,56 +2576,56 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BBV152</t>
+          <t>AZD1222</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Kappa</t>
+          <t>SARS-CoV-2</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>90.09999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="E22" t="n">
-        <v>30.4</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>99.8</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>8471</v>
+        <v>18563</v>
       </c>
       <c r="H22" t="n">
-        <v>8502</v>
+        <v>9031</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="J22" t="n">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>16/11/2020</t>
+          <t>28/08/2020</t>
         </is>
       </c>
       <c r="O22" t="n">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>US,Chile and Peru</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Symptomatic covid-19</t>
+          <t>Symptomatic infection-CDC definition</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2670,12 +2636,12 @@
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
         <is>
-          <t>1- attack rate</t>
+          <t>1 - relative risk</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>Clopper-Pearson</t>
+          <t>Poisson regression with robust error variance</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2690,18 +2656,18 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>Ella2021_efficacy_safety_and_lot_to_lot_immunogenicity_of_an_inactivated</t>
+          <t>Falsey2021_phase3_safety_and_efficacy_of_AZD1222</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="n">
-        <v>89.96340455672294</v>
+        <v>72.61154706395239</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.61104162628719</v>
+        <v>63.7633764106432</v>
       </c>
       <c r="AB22" t="n">
-        <v>98.7149561598743</v>
+        <v>79.29919291789597</v>
       </c>
     </row>
     <row r="23">
@@ -2719,52 +2685,52 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>70.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="E23" t="n">
-        <v>54.8</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>80.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>5807</v>
+        <v>17662</v>
       </c>
       <c r="H23" t="n">
-        <v>5829</v>
+        <v>8550</v>
       </c>
       <c r="I23" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="K23" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>28/09/2020</t>
+          <t>28/08/2020</t>
         </is>
       </c>
       <c r="O23" t="n">
-        <v>195</v>
+        <v>112</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>UK,Brazil, South africa</t>
+          <t>US,Chile and Peru</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>Symptomatic covid-19</t>
+          <t>Severe or critical</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Symptomatic</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -2775,7 +2741,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>Poisson regression with robust error variance</t>
+          <t>Exact Poisson regression</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2790,18 +2756,18 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>Voysey2021_Safety_and_efficacy_of</t>
+          <t>Falsey2021_phase3_safety_and_efficacy_of_AZD1222</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="n">
-        <v>70.18449907673737</v>
+        <v>100</v>
       </c>
       <c r="AA23" t="n">
-        <v>55.25654664851773</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>80.13197398238762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2810,7 +2776,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Novavax</t>
+          <t>AZD1222</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2819,52 +2785,52 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>89.7</v>
+        <v>94.8</v>
       </c>
       <c r="E24" t="n">
-        <v>80.2</v>
+        <v>59</v>
       </c>
       <c r="F24" t="n">
-        <v>94.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="G24" t="n">
-        <v>7569</v>
+        <v>17662</v>
       </c>
       <c r="H24" t="n">
-        <v>7570</v>
+        <v>8550</v>
       </c>
       <c r="I24" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>28/09/2020</t>
+          <t>28/08/2020</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>US,Chile and Peru</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>Symptomatic covid-19</t>
+          <t>ED</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Symptomatic</t>
+          <t>ED</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -2875,7 +2841,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>Poisson regression with robust error variance</t>
+          <t>Exact Poisson regression</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2890,18 +2856,18 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>Heath2021_Efficacy_of_the_NVX-CoV2373</t>
+          <t>Falsey2021_phase3_safety_and_efficacy_of_AZD1222</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="n">
-        <v>89.58195710573833</v>
+        <v>94.62122069980749</v>
       </c>
       <c r="AA24" t="n">
-        <v>80.03365800009902</v>
+        <v>57.55023087685537</v>
       </c>
       <c r="AB24" t="n">
-        <v>94.56407098770447</v>
+        <v>99.31845879594184</v>
       </c>
     </row>
     <row r="25">
@@ -2910,69 +2876,61 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Novavax</t>
+          <t>AZD1222</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Delta</t>
+          <t>SARS-CoV-2</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>86.3</v>
+        <v>94.2</v>
       </c>
       <c r="E25" t="n">
-        <v>71.3</v>
+        <v>53.3</v>
       </c>
       <c r="F25" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>99.3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>17662</v>
+      </c>
+      <c r="H25" t="n">
+        <v>8550</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>8</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>28/09/2020</t>
+          <t>28/08/2020</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>US,Chile and Peru</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>Symptomatic covid-19</t>
+          <t>Hospitalization</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Symptomatic</t>
+          <t>Hospitalization</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -2998,13 +2956,19 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>Heath2021_Efficacy_of_the_NVX-CoV2373</t>
+          <t>Falsey2021_phase3_safety_and_efficacy_of_AZD1222</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
+      <c r="Z25" t="n">
+        <v>93.94887328728343</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>51.62524721192221</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>99.24307345499498</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3012,7 +2976,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CoronaVac</t>
+          <t>AZD1222</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3021,59 +2985,63 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>83.5</v>
+        <v>100</v>
       </c>
       <c r="E26" t="n">
-        <v>65.40000000000001</v>
+        <v>-1781.6</v>
       </c>
       <c r="F26" t="n">
-        <v>92.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="G26" t="n">
-        <v>6646</v>
+        <v>17662</v>
       </c>
       <c r="H26" t="n">
-        <v>3568</v>
+        <v>8550</v>
       </c>
       <c r="I26" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>28/08/2020</t>
+        </is>
+      </c>
       <c r="O26" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>US,Chile and Peru</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>Symptomatic Covid-19</t>
+          <t>ICU admission</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Symptomatic</t>
+          <t>ICU</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>1 - relative risk</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>Events per COVID-19- free person-years</t>
+          <t>Exact Poisson regression</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -3088,18 +3056,18 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>Tanriover2021_Efficacy_and_safety_of_an_inactivated_whole-virion</t>
+          <t>Falsey2021_phase3_safety_and_efficacy_of_AZD1222</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="n">
-        <v>84.90069214565152</v>
+        <v>100</v>
       </c>
       <c r="AA26" t="n">
-        <v>68.40330878435911</v>
+        <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>92.78439960297074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3108,7 +3076,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>mRNA1273</t>
+          <t>BNT162b2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3117,47 +3085,47 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>93.2</v>
+        <v>100</v>
       </c>
       <c r="E27" t="n">
-        <v>91</v>
+        <v>75.3</v>
       </c>
       <c r="F27" t="n">
-        <v>94.8</v>
+        <v>100</v>
       </c>
       <c r="G27" t="n">
-        <v>15209</v>
+        <v>1131</v>
       </c>
       <c r="H27" t="n">
-        <v>15206</v>
+        <v>1129</v>
       </c>
       <c r="I27" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>744</v>
+        <v>16</v>
       </c>
       <c r="K27" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>27/07/2020</t>
+          <t>15/12/2020</t>
         </is>
       </c>
       <c r="O27" t="n">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>Covid-19 illness</t>
+          <t>Covid-19 infection</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -3168,17 +3136,17 @@
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr">
         <is>
-          <t>1-hazard ratio</t>
+          <t>1 - relative risk</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>stratified Cox proportional-hazards model with Efron's method of tie handling</t>
+          <t>Double sided Clopper-Pearson</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Phase 4</t>
+          <t>Phase 3 clinical trial (12-15)</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -3188,18 +3156,18 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>Sahly2021_efficacy_of_the_mRNA-1273_SARS_C0V-2_vaccine</t>
+          <t>Frenk2021_safety_immunogenicity_and_efficacy_of_the_BNT162b2</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="n">
-        <v>92.60898505907298</v>
+        <v>100</v>
       </c>
       <c r="AA27" t="n">
-        <v>90.28936184262531</v>
+        <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>94.37450958714591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3208,7 +3176,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>mRNA1273</t>
+          <t>CoVLP</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3217,68 +3185,68 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>98.2</v>
+        <v>69.5</v>
       </c>
       <c r="E28" t="n">
-        <v>92.8</v>
+        <v>56.7</v>
       </c>
       <c r="F28" t="n">
-        <v>99.59999999999999</v>
+        <v>78.8</v>
       </c>
       <c r="G28" t="n">
-        <v>15209</v>
+        <v>12074</v>
       </c>
       <c r="H28" t="n">
-        <v>15206</v>
+        <v>12067</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="J28" t="n">
-        <v>106</v>
-      </c>
-      <c r="K28" t="n">
-        <v>21</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>27/07/2020</t>
+          <t>15/03/2021</t>
         </is>
       </c>
       <c r="O28" t="n">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Argentina, Brazil, Canada, Mexico, US and UK</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>Severe disease</t>
+          <t>Symptomatic</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Severe</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
+          <t>Symptomatic</t>
+        </is>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>1-hazard ratio</t>
+          <t>1 - Incidence rate ratio</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>stratified Cox proportional-hazards model with Efron's method of tie handling</t>
+          <t>Poisson regression</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Phase 4</t>
+          <t>Phase 3</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -3288,18 +3256,18 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>Sahly2021_efficacy_of_the_mRNA-1273_SARS_C0V-2_vaccine</t>
+          <t>Hager2022_Efficacy_and_Safety_of_a_recombiant_Plant</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="n">
-        <v>98.11357972005156</v>
+        <v>68.01855226105683</v>
       </c>
       <c r="AA28" t="n">
-        <v>92.35965000277866</v>
+        <v>54.38153064198021</v>
       </c>
       <c r="AB28" t="n">
-        <v>99.5342384218138</v>
+        <v>77.57897154655535</v>
       </c>
     </row>
     <row r="29">
@@ -3308,7 +3276,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>mRNA1273</t>
+          <t>CoVLP</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3317,68 +3285,68 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>63</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>56.6</v>
+        <v>51.5</v>
       </c>
       <c r="F29" t="n">
-        <v>68.5</v>
+        <v>90</v>
       </c>
       <c r="G29" t="n">
-        <v>15209</v>
+        <v>12074</v>
       </c>
       <c r="H29" t="n">
-        <v>15206</v>
+        <v>12067</v>
       </c>
       <c r="I29" t="n">
-        <v>214</v>
+        <v>8</v>
       </c>
       <c r="J29" t="n">
-        <v>498</v>
-      </c>
-      <c r="K29" t="n">
-        <v>21</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>27/07/2020</t>
+          <t>15/03/2021</t>
         </is>
       </c>
       <c r="O29" t="n">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Argentina, Brazil, Canada, Mexico, US and UK</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Asymptotic Infection</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Asymptomatic</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr"/>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>1-hazard ratio</t>
+          <t>1 - Incidence rate ratio</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>stratified Cox proportional-hazards model with Efron's method of tie handling</t>
+          <t>Poisson regression</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Phase 4</t>
+          <t>Phase 3</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -3388,18 +3356,18 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>Sahly2021_efficacy_of_the_mRNA-1273_SARS_C0V-2_vaccine</t>
+          <t>Hager2022_Efficacy_and_Safety_of_a_recombiant_Plant</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="n">
-        <v>57.03658872454774</v>
+        <v>75.77163050080063</v>
       </c>
       <c r="AA29" t="n">
-        <v>49.6515099307723</v>
+        <v>47.5679106715358</v>
       </c>
       <c r="AB29" t="n">
-        <v>63.33842969499857</v>
+        <v>88.80430102809086</v>
       </c>
     </row>
     <row r="30">
@@ -3408,7 +3376,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Novavax</t>
+          <t>CoVLP</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3417,68 +3385,70 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>90.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="E30" t="n">
-        <v>82.90000000000001</v>
-      </c>
-      <c r="F30" t="n">
-        <v>94.59999999999999</v>
+        <v>-63.7</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="G30" t="n">
-        <v>19714</v>
+        <v>12074</v>
       </c>
       <c r="H30" t="n">
-        <v>9868</v>
+        <v>12067</v>
       </c>
       <c r="I30" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>63</v>
-      </c>
-      <c r="K30" t="n">
-        <v>7</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>27/12/2020</t>
+          <t>15/03/2021</t>
         </is>
       </c>
       <c r="O30" t="n">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Argentina, Brazil, Canada, Mexico, US and UK</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Infection</t>
+          <t>Severe</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Symptomatic</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr"/>
+          <t>Severe</t>
+        </is>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>1 - relative risk</t>
+          <t>1 - Incidence rate ratio</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>Poisson regression with robust error variance</t>
+          <t>Poisson regression</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Phase 3 clinical trial</t>
+          <t>Phase 3</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -3488,18 +3458,18 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>Dunkle2021_Efficacy_and_Safety_of_NVX_CoV_2373</t>
+          <t>Hager2022_Efficacy_and_Safety_of_a_recombiant_Plant</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="n">
-        <v>88.87648935330785</v>
+        <v>100</v>
       </c>
       <c r="AA30" t="n">
-        <v>80.1605085173896</v>
+        <v>0</v>
       </c>
       <c r="AB30" t="n">
-        <v>93.76332356020683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3508,7 +3478,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Novavax</t>
+          <t>Ad5-nCOV</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3517,63 +3487,63 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>100</v>
+        <v>57.5</v>
       </c>
       <c r="E31" t="n">
-        <v>87</v>
+        <v>39.7</v>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G31" t="n">
-        <v>19714</v>
+        <v>10590</v>
       </c>
       <c r="H31" t="n">
-        <v>9868</v>
+        <v>10660</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="K31" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>27/12/2020</t>
+          <t>22/09/2020</t>
         </is>
       </c>
       <c r="O31" t="n">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Argentina, Chile, Mexico. Pakistan and russia</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>Severe</t>
+          <t>Symptomatic infection</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Severe</t>
+          <t>Symptomatic</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr">
         <is>
-          <t>1 - relative risk</t>
+          <t>1-hazard ratio</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>Poisson regression with robust error variance</t>
+          <t>Cox proportional hazards model</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -3588,18 +3558,18 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>Dunkle2021_Efficacy_and_Safety_of_NVX_CoV_2373</t>
+          <t>Halperin2021_Final_efficacy_analysis_interim_safety_analysis_and</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="n">
-        <v>100</v>
+        <v>56.85957102387697</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>38.89186182612747</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>69.54421018443581</v>
       </c>
     </row>
     <row r="32">
@@ -3617,25 +3587,25 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>57.5</v>
+        <v>63.7</v>
       </c>
       <c r="E32" t="n">
-        <v>39.7</v>
+        <v>52.9</v>
       </c>
       <c r="F32" t="n">
-        <v>70</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>10590</v>
+        <v>14591</v>
       </c>
       <c r="H32" t="n">
-        <v>10660</v>
+        <v>14568</v>
       </c>
       <c r="I32" t="n">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="J32" t="n">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="K32" t="n">
         <v>6.5</v>
@@ -3657,7 +3627,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>Symptomatic infection</t>
+          <t>Symptomatic infection-after 28 days</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -3673,7 +3643,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>Binomial exact</t>
+          <t>Cox proportional hazards model</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -3693,13 +3663,13 @@
       </c>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="n">
-        <v>56.85957102387697</v>
+        <v>63.5646332657832</v>
       </c>
       <c r="AA32" t="n">
-        <v>38.89186182612747</v>
+        <v>52.74855243396457</v>
       </c>
       <c r="AB32" t="n">
-        <v>69.54421018443581</v>
+        <v>71.90486180975519</v>
       </c>
     </row>
     <row r="33">
@@ -3717,13 +3687,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>63.7</v>
+        <v>91.7</v>
       </c>
       <c r="E33" t="n">
-        <v>52.9</v>
+        <v>36.1</v>
       </c>
       <c r="F33" t="n">
-        <v>72.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="G33" t="n">
         <v>14591</v>
@@ -3731,11 +3701,15 @@
       <c r="H33" t="n">
         <v>14568</v>
       </c>
-      <c r="I33" t="n">
-        <v>77</v>
-      </c>
-      <c r="J33" t="n">
-        <v>211</v>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="K33" t="n">
         <v>6.5</v>
@@ -3757,12 +3731,12 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>Symptomatic infection-after 28 days</t>
+          <t>Severe disease</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Symptomatic</t>
+          <t>Severe</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -3773,7 +3747,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>Binomial exact</t>
+          <t>Cox proportional hazards model</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -3792,15 +3766,9 @@
         </is>
       </c>
       <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="n">
-        <v>63.5646332657832</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>52.74855243396457</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>71.90486180975519</v>
-      </c>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3808,7 +3776,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ad5-nCOV</t>
+          <t>Ad26.COV2.S*</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3817,88 +3785,94 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>91.7</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>36.1</v>
+        <v>55.5</v>
       </c>
       <c r="F34" t="n">
-        <v>99</v>
+        <v>87.5</v>
       </c>
       <c r="G34" t="n">
-        <v>14591</v>
+        <v>6024</v>
       </c>
       <c r="H34" t="n">
-        <v>14568</v>
-      </c>
-      <c r="I34" t="inlineStr">
+        <v>5615</v>
+      </c>
+      <c r="I34" t="n">
+        <v>14</v>
+      </c>
+      <c r="J34" t="n">
+        <v>53</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>X</t>
         </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>6.5</v>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>22/09/2020</t>
-        </is>
-      </c>
-      <c r="O34" t="n">
-        <v>115</v>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Argentina, Chile, Mexico. Pakistan and russia</t>
+          <t xml:space="preserve">Belgium, Brazil, Coloumbia, France, Germany, Philippines, South africa, Spain, UK and US </t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>Severe disease</t>
+          <t>Symptomatic</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Severe</t>
+          <t>Symptomatic</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr">
         <is>
-          <t>1-hazard ratio</t>
+          <t>1 - Incidence rate ratio</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>Binomial exact</t>
+          <t>Exact Poisson regression</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>Phase 3 clinical trial</t>
+          <t>Booster-dose</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>Peer-reviewed</t>
+          <t>Pre-print</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>Halperin2021_Final_efficacy_analysis_interim_safety_analysis_and</t>
+          <t>Hardt2022_Efficacy_and_safety_of_a_booster_regimen</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
+      <c r="Z34" t="n">
+        <v>75.37836077075346</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>55.67848689612656</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>86.32210238593612</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3906,7 +3880,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AZD1222</t>
+          <t>Ad26.COV2.S*</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3915,89 +3889,93 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>74</v>
+        <v>70.7</v>
       </c>
       <c r="E35" t="n">
-        <v>65.3</v>
+        <v>45.5</v>
       </c>
       <c r="F35" t="n">
-        <v>80.5</v>
+        <v>85.2</v>
       </c>
       <c r="G35" t="n">
-        <v>17662</v>
+        <v>6024</v>
       </c>
       <c r="H35" t="n">
-        <v>8550</v>
+        <v>5615</v>
       </c>
       <c r="I35" t="n">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="J35" t="n">
-        <v>130</v>
-      </c>
-      <c r="K35" t="n">
-        <v>4</v>
+        <v>44</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
-        </is>
-      </c>
-      <c r="O35" t="n">
-        <v>112</v>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>US,Chile and Peru</t>
+          <t xml:space="preserve">Belgium, Brazil, Coloumbia, France, Germany, Philippines, South africa, Spain, UK and US </t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>Symptomatic infection</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Symptomatic</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr">
         <is>
-          <t>1 - relative risk</t>
+          <t>1 - Incidence rate ratio</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>Poisson regression with robust error variance</t>
+          <t>Exact Poisson regression</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Phase 3 clinical trial</t>
+          <t>Booster-dose</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>Peer-reviewed</t>
+          <t>Pre-print</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>Falsey2021_phase3_safety_and_efficacy_of_AZD1222</t>
+          <t>Hardt2022_Efficacy_and_safety_of_a_booster_regimen</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="n">
-        <v>72.81647692133481</v>
+        <v>70.34211638295302</v>
       </c>
       <c r="AA35" t="n">
-        <v>63.83440874587205</v>
+        <v>45.94237724206511</v>
       </c>
       <c r="AB35" t="n">
-        <v>79.56776313220153</v>
+        <v>83.72865812873371</v>
       </c>
     </row>
     <row r="36">
@@ -4006,7 +3984,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AZD1222</t>
+          <t>Ad26.COV2.S*</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4015,89 +3993,93 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>73.3</v>
+        <v>100</v>
       </c>
       <c r="E36" t="n">
-        <v>65.09999999999999</v>
+        <v>32.6</v>
       </c>
       <c r="F36" t="n">
-        <v>80.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>18563</v>
+        <v>6024</v>
       </c>
       <c r="H36" t="n">
-        <v>9031</v>
+        <v>5615</v>
       </c>
       <c r="I36" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>135</v>
-      </c>
-      <c r="K36" t="n">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
-        </is>
-      </c>
-      <c r="O36" t="n">
-        <v>112</v>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>US,Chile and Peru</t>
+          <t xml:space="preserve">Belgium, Brazil, Coloumbia, France, Germany, Philippines, South africa, Spain, UK and US </t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>Symptomatic infection-CDC definition</t>
+          <t>Severe-Critical</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Symptomatic</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
-          <t>1 - relative risk</t>
+          <t>1 - Incidence rate ratio</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Exact Poisson regression</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Phase 3 clinical trial</t>
+          <t>Booster-dose</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>Peer-reviewed</t>
+          <t>Pre-print</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>Falsey2021_phase3_safety_and_efficacy_of_AZD1222</t>
+          <t>Hardt2022_Efficacy_and_safety_of_a_booster_regimen</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="n">
-        <v>72.61154706395239</v>
+        <v>100</v>
       </c>
       <c r="AA36" t="n">
-        <v>63.7633764106432</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>79.29919291789597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -4106,7 +4088,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AZD1222</t>
+          <t>Ad26.COV2.S*</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4115,89 +4097,93 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>100</v>
+        <v>34.2</v>
       </c>
       <c r="E37" t="n">
-        <v>71.59999999999999</v>
+        <v>-6.4</v>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>59.8</v>
       </c>
       <c r="G37" t="n">
-        <v>17662</v>
+        <v>6024</v>
       </c>
       <c r="H37" t="n">
-        <v>8550</v>
+        <v>5615</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J37" t="n">
-        <v>8</v>
-      </c>
-      <c r="K37" t="n">
-        <v>4</v>
+        <v>56</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
-        </is>
-      </c>
-      <c r="O37" t="n">
-        <v>112</v>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>US,Chile and Peru</t>
+          <t xml:space="preserve">Belgium, Brazil, Coloumbia, France, Germany, Philippines, South africa, Spain, UK and US </t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Severe or critical</t>
+          <t>Asymptomatic Infection</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>Asymptomatic</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr">
         <is>
-          <t>1 - relative risk</t>
+          <t>1 - Incidence rate ratio</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Exact Poisson regression</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Phase 3 clinical trial</t>
+          <t>Booster-dose</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>Peer-reviewed</t>
+          <t>Pre-print</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>Falsey2021_phase3_safety_and_efficacy_of_AZD1222</t>
+          <t>Hardt2022_Efficacy_and_safety_of_a_booster_regimen</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="n">
-        <v>100</v>
+        <v>33.42107759438436</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>0.2652253072337074</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>55.5545904390107</v>
       </c>
     </row>
     <row r="38">
@@ -4206,7 +4192,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AZD1222</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4215,52 +4201,52 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>94.8</v>
+        <v>89.7</v>
       </c>
       <c r="E38" t="n">
-        <v>59</v>
+        <v>80.2</v>
       </c>
       <c r="F38" t="n">
-        <v>99.3</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>17662</v>
+        <v>7569</v>
       </c>
       <c r="H38" t="n">
-        <v>8550</v>
+        <v>7570</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J38" t="n">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="K38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
+          <t>28/09/2020</t>
         </is>
       </c>
       <c r="O38" t="n">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>US,Chile and Peru</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>ED</t>
+          <t>Symptomatic covid-19</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>ED</t>
+          <t>Symptomatic</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -4271,7 +4257,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Poisson regression with robust error variance</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -4286,18 +4272,18 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>Falsey2021_phase3_safety_and_efficacy_of_AZD1222</t>
+          <t>Heath2021_Efficacy_of_the_NVX-CoV2373</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="n">
-        <v>94.62122069980749</v>
+        <v>89.58195710573833</v>
       </c>
       <c r="AA38" t="n">
-        <v>57.55023087685537</v>
+        <v>80.03365800009902</v>
       </c>
       <c r="AB38" t="n">
-        <v>99.31845879594184</v>
+        <v>94.56407098770447</v>
       </c>
     </row>
     <row r="39">
@@ -4306,61 +4292,69 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AZD1222</t>
+          <t>Novavax</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SARS-CoV-2</t>
+          <t>Delta</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>94.2</v>
+        <v>86.3</v>
       </c>
       <c r="E39" t="n">
-        <v>53.3</v>
+        <v>71.3</v>
       </c>
       <c r="F39" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="G39" t="n">
-        <v>17662</v>
-      </c>
-      <c r="H39" t="n">
-        <v>8550</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>8</v>
+        <v>93.5</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
+          <t>28/09/2020</t>
         </is>
       </c>
       <c r="O39" t="n">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>US,Chile and Peru</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>Hospitalization</t>
+          <t>Symptomatic covid-19</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Hospitalization</t>
+          <t>Symptomatic</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -4371,7 +4365,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Poisson regression with robust error variance</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -4386,19 +4380,13 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>Falsey2021_phase3_safety_and_efficacy_of_AZD1222</t>
+          <t>Heath2021_Efficacy_of_the_NVX-CoV2373</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="n">
-        <v>93.94887328728343</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>51.62524721192221</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>99.24307345499498</v>
-      </c>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4406,7 +4394,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AZD1222</t>
+          <t>BBIBP-CorV</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4415,63 +4403,69 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>100</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>-1781.6</v>
+        <v>64.8</v>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>86.3</v>
       </c>
       <c r="G40" t="n">
-        <v>17662</v>
+        <v>13465</v>
       </c>
       <c r="H40" t="n">
-        <v>8550</v>
+        <v>13458</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="K40" t="n">
-        <v>4</v>
-      </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="M40" t="n">
+        <v>44.7</v>
+      </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>28/08/2020</t>
-        </is>
-      </c>
-      <c r="O40" t="n">
-        <v>112</v>
+          <t>20/12/2020</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>US,Chile and Peru</t>
+          <t>UAE, Bahrain</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>ICU admission</t>
+          <t>Symptomatic covid-19</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>ICU</t>
+          <t>Symptomatic</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr">
         <is>
-          <t>1 - relative risk</t>
+          <t>1-incidence rate ratio</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Clopper-Pearson</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -4486,18 +4480,18 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>Falsey2021_phase3_safety_and_efficacy_of_AZD1222</t>
+          <t>Kaabi2021_Effect_of_2_inactivated_SARS-CoV-2_vaccines_on_Symptomatic</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="n">
-        <v>100</v>
+        <v>77.90622862391776</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>64.57870538837352</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>86.21917298702097</v>
       </c>
     </row>
     <row r="41">
@@ -4506,7 +4500,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BNT162b2</t>
+          <t>Vero cells</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4515,47 +4509,53 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>100</v>
+        <v>72.8</v>
       </c>
       <c r="E41" t="n">
-        <v>75.3</v>
+        <v>58.1</v>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>1131</v>
+        <v>13459</v>
       </c>
       <c r="H41" t="n">
-        <v>1129</v>
+        <v>13458</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J41" t="n">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>44.7</v>
+      </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>15/12/2020</t>
-        </is>
-      </c>
-      <c r="O41" t="n">
-        <v>28</v>
+          <t>20/12/2020</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>UAE, Bahrain</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>Covid-19 infection</t>
+          <t>Symptomatic covid-19</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -4566,17 +4566,17 @@
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr">
         <is>
-          <t>1 - relative risk</t>
+          <t>1-incidence rate ratio</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>Double sided Clopper-Pearson</t>
+          <t>Clopper-Pearson</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Phase 3 clinical trial (12-15)</t>
+          <t>Phase 3 clinical trial</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
@@ -4586,18 +4586,18 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>Frenk2021_safety_immunogenicity_and_efficacy_of_the_BNT162b2</t>
+          <t>Kaabi2021_Effect_of_2_inactivated_SARS-CoV-2_vaccines_on_Symptomatic</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="n">
-        <v>100</v>
+        <v>72.63361241352881</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>57.79799353481101</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>82.25394401209994</v>
       </c>
     </row>
     <row r="42">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SOBERANA-02</t>
+          <t>BBIBP-CorV</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4615,61 +4615,71 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>71</v>
-      </c>
-      <c r="E42" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="F42" t="n">
-        <v>79.09999999999999</v>
+        <v>100</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="G42" t="n">
-        <v>14371</v>
+        <v>13465</v>
       </c>
       <c r="H42" t="n">
-        <v>14303</v>
-      </c>
-      <c r="I42" t="n">
-        <v>43</v>
+        <v>13458</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="J42" t="n">
-        <v>155</v>
+        <v>2</v>
       </c>
       <c r="K42" t="n">
         <v>2</v>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" s="2" t="n">
-        <v>44411</v>
-      </c>
-      <c r="O42" t="n">
-        <v>23</v>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>20/12/2020</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>UAE, Bahrain</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>Symptomatic SARS-CoV-2</t>
+          <t>Incident severe</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Symptomatic</t>
+          <t>Severe</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr">
         <is>
-          <t>1-hazard ratio</t>
+          <t>1-incidence rate ratio</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Clopper-Pearson</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -4679,24 +4689,18 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>Pre-print</t>
+          <t>Peer-reviewed</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>Romani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
+          <t>Kaabi2021_Effect_of_2_inactivated_SARS-CoV-2_vaccines_on_Symptomatic</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="n">
-        <v>72.38933245941087</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>61.32356069065417</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>80.28906032586285</v>
-      </c>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4704,7 +4708,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SOBERANA-02</t>
+          <t>Vero cells</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4713,7 +4717,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -4726,36 +4730,42 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>14371</v>
+        <v>13459</v>
       </c>
       <c r="H43" t="n">
-        <v>14303</v>
-      </c>
-      <c r="I43" t="n">
+        <v>13458</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
         <v>2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>6</v>
       </c>
       <c r="K43" t="n">
         <v>2</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" s="2" t="n">
-        <v>44411</v>
-      </c>
-      <c r="O43" t="n">
-        <v>23</v>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>20/12/2020</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>UAE, Bahrain</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>Severe disease</t>
+          <t>Incident severe</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -4766,12 +4776,12 @@
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr">
         <is>
-          <t>1-hazard ratio</t>
+          <t>1-incidence rate ratio</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Clopper-Pearson</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -4781,24 +4791,18 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>Pre-print</t>
+          <t>Peer-reviewed</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>Romani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
+          <t>Kaabi2021_Effect_of_2_inactivated_SARS-CoV-2_vaccines_on_Symptomatic</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="n">
-        <v>66.82439171479599</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>-64.34711906813556</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>93.30307101618862</v>
-      </c>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4806,69 +4810,69 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SOBERANA-02</t>
+          <t>ZyCov-D</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SARS-CoV-2</t>
+          <t>Mixed variants</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>59</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>66.59999999999999</v>
+      </c>
+      <c r="E44" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="F44" t="n">
+        <v>80.7</v>
       </c>
       <c r="G44" t="n">
-        <v>14371</v>
+        <v>12350</v>
       </c>
       <c r="H44" t="n">
-        <v>14303</v>
+        <v>12320</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J44" t="n">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="K44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" s="2" t="n">
-        <v>44411</v>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>16/01/2021</t>
+        </is>
       </c>
       <c r="O44" t="n">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>India</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Symptomatic</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Death</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr"/>
+          <t>Symptomatic</t>
+        </is>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>1-hazard ratio</t>
+          <t>1 - Incidence rate ratio</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
@@ -4878,28 +4882,28 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Phase 3 clinical trial</t>
+          <t>Phase 3</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>Pre-print</t>
+          <t>Peer-reviewed</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>Romani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
+          <t>Khobragade2022_Efficacy_safety_and_immunogenicity_of_the_DNA_SAR</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="n">
-        <v>62.67744067914551</v>
+        <v>67.29275900975642</v>
       </c>
       <c r="AA44" t="n">
-        <v>-40.65671476080679</v>
+        <v>45.83628760237287</v>
       </c>
       <c r="AB44" t="n">
-        <v>90.09664461005281</v>
+        <v>80.24944070782092</v>
       </c>
     </row>
     <row r="45">
@@ -4908,7 +4912,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SOBERANA Plus</t>
+          <t>Sputnik V</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4917,45 +4921,45 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>92.40000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>86.90000000000001</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>95</v>
+        <v>95.2</v>
       </c>
       <c r="G45" t="n">
-        <v>13883</v>
+        <v>16501</v>
       </c>
       <c r="H45" t="n">
-        <v>14303</v>
+        <v>5476</v>
       </c>
       <c r="I45" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J45" t="n">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="K45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" s="2" t="n">
-        <v>44411</v>
+        <v>44021</v>
       </c>
       <c r="O45" t="n">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>Symptomatic SARS-CoV-2</t>
+          <t>Confirmed Covid-19</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -4966,12 +4970,12 @@
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr">
         <is>
-          <t>1-hazard ratio</t>
+          <t>1-Odds ratio</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Baptista-Pike method</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -4981,23 +4985,23 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>Pre-print</t>
+          <t>Peer-reviewed</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>Romani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
+          <t>Logunov2021_safety_and_efficacy</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="n">
-        <v>90.02981134968969</v>
+        <v>91.43590515530829</v>
       </c>
       <c r="AA45" t="n">
-        <v>83.07018115428563</v>
+        <v>85.17479466893981</v>
       </c>
       <c r="AB45" t="n">
-        <v>94.12842732526107</v>
+        <v>95.05276865506791</v>
       </c>
     </row>
     <row r="46">
@@ -5006,7 +5010,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SOBERANA Plus</t>
+          <t>Sputnik V</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5017,47 +5021,43 @@
       <c r="D46" t="n">
         <v>100</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="E46" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="F46" t="n">
+        <v>100</v>
       </c>
       <c r="G46" t="n">
-        <v>13883</v>
+        <v>14964</v>
       </c>
       <c r="H46" t="n">
-        <v>14303</v>
+        <v>4902</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
+        <v>20</v>
+      </c>
+      <c r="K46" t="n">
         <v>6</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2</v>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" s="2" t="n">
-        <v>44411</v>
+        <v>44021</v>
       </c>
       <c r="O46" t="n">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>Severe disease</t>
+          <t>Severe</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -5065,15 +5065,17 @@
           <t>Severe</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr"/>
+      <c r="S46" t="n">
+        <v>7</v>
+      </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>1-hazard ratio</t>
+          <t>1-Odds ratio</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Baptista-Pike method</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -5083,12 +5085,12 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>Pre-print</t>
+          <t>Peer-reviewed</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>Romani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
+          <t>Logunov2021_safety_and_efficacy</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr"/>
@@ -5108,100 +5110,94 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SOBERANA Plus</t>
+          <t>BNT162b2*</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SARS-CoV-2</t>
+          <t>Mixed variants</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>100</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>94.8</v>
+      </c>
+      <c r="E47" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="F47" t="n">
+        <v>98.09999999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>13883</v>
+        <v>5056</v>
       </c>
       <c r="H47" t="n">
-        <v>14303</v>
+        <v>5019</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J47" t="n">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="K47" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" s="2" t="n">
-        <v>44411</v>
-      </c>
-      <c r="O47" t="n">
-        <v>23</v>
-      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>US</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Symptomatic</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Death</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr"/>
+          <t>Symptomatic</t>
+        </is>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>1-hazard ratio</t>
+          <t>1 - Incidence rate ratio</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Double sided Clopper-Pearson</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Phase 3 clinical trial</t>
+          <t>Booster-dose</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>Pre-print</t>
+          <t>Peer-reviewed</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>Romani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
+          <t>Moreira2022_Safety_and_efficacy_of_a_third_dose_of_BNT162b2.pdf</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="n">
-        <v>100</v>
+        <v>94.68206091772153</v>
       </c>
       <c r="AA47" t="n">
-        <v>0</v>
+        <v>87.92089778762532</v>
       </c>
       <c r="AB47" t="n">
-        <v>0</v>
+        <v>97.65872698271794</v>
       </c>
     </row>
     <row r="48">
@@ -5210,7 +5206,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BNT162b2</t>
+          <t>CoronaVac</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5219,66 +5215,70 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>91.09999999999999</v>
+        <v>50.7</v>
       </c>
       <c r="E48" t="n">
-        <v>88.8</v>
+        <v>35.7</v>
       </c>
       <c r="F48" t="n">
-        <v>93.2</v>
+        <v>62.2</v>
       </c>
       <c r="G48" t="n">
-        <v>20334</v>
+        <v>4953</v>
       </c>
       <c r="H48" t="n">
-        <v>20794</v>
+        <v>4870</v>
       </c>
       <c r="I48" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J48" t="n">
-        <v>873</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+        <v>168</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2</v>
+      </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>27/07/2020</t>
+          <t>21/07/2020</t>
         </is>
       </c>
       <c r="O48" t="n">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>USA, Argentina, Brazil, south africa. Germany and turkey</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>Documented infection</t>
+          <t>Symptomatic covid-19</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Documented infection</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr"/>
+          <t>Symptomatic</t>
+        </is>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>1-incidence rate ratio</t>
+          <t>1-hazard ratio</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>Clopper-Pearson</t>
+          <t>Wald</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Post Phase 3 study</t>
+          <t>Phase 3 clinical trial</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -5288,20 +5288,20 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>Thomas2021_Six_month_safety_and_efficacy_of_the_BNT162b2</t>
+          <t>Palacios2021_CoronaVac_efficacy</t>
         </is>
       </c>
       <c r="Y48" t="n">
         <v>18</v>
       </c>
       <c r="Z48" t="n">
-        <v>90.51175269899888</v>
+        <v>50.25261265418747</v>
       </c>
       <c r="AA48" t="n">
-        <v>88.09583267967565</v>
+        <v>35.61832273629254</v>
       </c>
       <c r="AB48" t="n">
-        <v>92.43736798866651</v>
+        <v>61.56045240018346</v>
       </c>
     </row>
     <row r="49">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BNT162b2</t>
+          <t>CoronaVac</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5319,66 +5319,70 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>97</v>
+        <v>83.7</v>
       </c>
       <c r="E49" t="n">
-        <v>80.3</v>
+        <v>58</v>
       </c>
       <c r="F49" t="n">
-        <v>99.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="G49" t="n">
-        <v>20334</v>
+        <v>4953</v>
       </c>
       <c r="H49" t="n">
-        <v>20794</v>
+        <v>4870</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>30</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2</v>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>27/07/2020</t>
+          <t>21/07/2020</t>
         </is>
       </c>
       <c r="O49" t="n">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>USA, Argentina, Brazil, south africa. Germany and turkey</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>Severe disease</t>
+          <t>Symptomatic- Moderate</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Severe</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr"/>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>1-incidence rate ratio</t>
+          <t>1-hazard ratio</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>Clopper-Pearson</t>
+          <t>Wald</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Post Phase 3 study</t>
+          <t>Phase 3 clinical trial</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -5388,18 +5392,18 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>Thomas2021_Six_month_safety_and_efficacy_of_the_BNT162b2</t>
+          <t>Palacios2021_CoronaVac_efficacy</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="n">
-        <v>96.59125930297367</v>
+        <v>100</v>
       </c>
       <c r="AA49" t="n">
-        <v>75.00569400062713</v>
+        <v>0</v>
       </c>
       <c r="AB49" t="n">
-        <v>99.53511359187748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -5408,79 +5412,79 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BNT162b2</t>
+          <t>CoronaVac</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Beta</t>
+          <t>SARS-CoV-2</t>
         </is>
       </c>
       <c r="D50" t="n">
         <v>100</v>
       </c>
       <c r="E50" t="n">
-        <v>53.5</v>
+        <v>56.4</v>
       </c>
       <c r="F50" t="n">
         <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>20334</v>
+        <v>4953</v>
       </c>
       <c r="H50" t="n">
-        <v>20794</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
+        <v>4870</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>6</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2</v>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>27/07/2020</t>
+          <t>21/07/2020</t>
         </is>
       </c>
       <c r="O50" t="n">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>USA, Argentina, Brazil, south africa. Germany and turkey</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>Documented infection</t>
+          <t>Symptomatic- Severe</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Documented infection</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr"/>
+          <t>Severe</t>
+        </is>
+      </c>
+      <c r="S50" t="n">
+        <v>7</v>
+      </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>1-incidence rate ratio</t>
+          <t>1-hazard ratio</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>Clopper-Pearson</t>
+          <t>Wald</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Post Phase 3 study</t>
+          <t>Phase 3 clinical trial</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -5490,13 +5494,19 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>Thomas2021_Six_month_safety_and_efficacy_of_the_BNT162b2</t>
+          <t>Palacios2021_CoronaVac_efficacy</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
-      <c r="AB50" t="inlineStr"/>
+      <c r="Z50" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -5504,7 +5514,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AZD1222*</t>
+          <t>BNT162b2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5513,47 +5523,47 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>81.3</v>
+        <v>95</v>
       </c>
       <c r="E51" t="n">
-        <v>60.3</v>
+        <v>90.3</v>
       </c>
       <c r="F51" t="n">
-        <v>91.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>1293</v>
+        <v>21720</v>
       </c>
       <c r="H51" t="n">
-        <v>1356</v>
+        <v>21728</v>
       </c>
       <c r="I51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J51" t="n">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="K51" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>23/04/2020</t>
+          <t>27/07/2020</t>
         </is>
       </c>
       <c r="O51" t="n">
-        <v>227</v>
+        <v>110</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>UK, Brazil, South africa</t>
+          <t>USA, Argentina, Brazil, south africa. Germany and turkey</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>Symptotic Covid-19</t>
+          <t>Confirmed Covid-19</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -5564,17 +5574,17 @@
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr">
         <is>
-          <t>1- adj relative risk</t>
+          <t>1-incidence rate ratio</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>Robust Poisson model</t>
+          <t>Bayesian beta-binomial model</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Booster-dose</t>
+          <t>Phase 3 clinical trial</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -5584,18 +5594,18 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>Voysey2021_Single-dose_administration_and_the_influence</t>
+          <t>Polack2020_safety_and_efficacy</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="n">
-        <v>81.35601959267854</v>
+        <v>95.6774208216811</v>
       </c>
       <c r="AA51" t="n">
-        <v>60.60268674396234</v>
+        <v>90.79023089062545</v>
       </c>
       <c r="AB51" t="n">
-        <v>91.17711395268007</v>
+        <v>97.97120964370137</v>
       </c>
     </row>
     <row r="52">
@@ -5604,7 +5614,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AZD1222*</t>
+          <t>SOBERANA-02</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5613,47 +5623,45 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>55.1</v>
+        <v>71</v>
       </c>
       <c r="E52" t="n">
-        <v>33</v>
+        <v>58.9</v>
       </c>
       <c r="F52" t="n">
-        <v>69.90000000000001</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>3890</v>
+        <v>14371</v>
       </c>
       <c r="H52" t="n">
-        <v>3856</v>
+        <v>14303</v>
       </c>
       <c r="I52" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J52" t="n">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="K52" t="n">
         <v>2</v>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>23/04/2020</t>
-        </is>
+      <c r="N52" s="2" t="n">
+        <v>44411</v>
       </c>
       <c r="O52" t="n">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>UK, Brazil, South africa</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>Symptotic Covid-19</t>
+          <t>Symptomatic SARS-CoV-2</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -5664,38 +5672,38 @@
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
         <is>
-          <t>1- adj relative risk</t>
+          <t>1-hazard ratio</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>Robust Poisson model</t>
+          <t>Cox proportional hazards model</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Booster-dose</t>
+          <t>Phase 3 clinical trial</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>Peer-reviewed</t>
+          <t>Pre-print</t>
         </is>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>Voysey2021_Single-dose_administration_and_the_influence</t>
+          <t>Romani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="n">
-        <v>54.34988499526451</v>
+        <v>72.38933245941087</v>
       </c>
       <c r="AA52" t="n">
-        <v>32.04096892784178</v>
+        <v>61.32356069065417</v>
       </c>
       <c r="AB52" t="n">
-        <v>69.33545156444509</v>
+        <v>80.28906032586285</v>
       </c>
     </row>
     <row r="53">
@@ -5704,7 +5712,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BNT162b2</t>
+          <t>SOBERANA-02</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -5713,56 +5721,54 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>92.8</v>
-      </c>
-      <c r="E53" t="n">
-        <v>92.59999999999999</v>
-      </c>
-      <c r="F53" t="n">
-        <v>93</v>
-      </c>
-      <c r="G53" t="inlineStr">
+        <v>63</v>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="G53" t="n">
+        <v>14371</v>
+      </c>
+      <c r="H53" t="n">
+        <v>14303</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2</v>
+      </c>
+      <c r="J53" t="n">
+        <v>6</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" s="2" t="n">
+        <v>44411</v>
+      </c>
       <c r="O53" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>Documented infection</t>
+          <t>Severe disease</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Documented infection</t>
+          <t>Severe</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -5773,12 +5779,12 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Cox proportional hazards model</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Prospective cohort</t>
+          <t>Phase 3 clinical trial</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -5788,15 +5794,21 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>Goldber2021_protection_of_previous_SARS-CoV-2</t>
+          <t>Romani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
         </is>
       </c>
       <c r="Y53" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>66.82439171479599</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>-64.34711906813556</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>93.30307101618862</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -5804,7 +5816,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BNT162b2</t>
+          <t>SOBERANA-02</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -5813,56 +5825,54 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>94</v>
-      </c>
-      <c r="E54" t="n">
-        <v>94</v>
-      </c>
-      <c r="F54" t="n">
-        <v>95</v>
-      </c>
-      <c r="G54" t="inlineStr">
+        <v>59</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="G54" t="n">
+        <v>14371</v>
+      </c>
+      <c r="H54" t="n">
+        <v>14303</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>8</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" s="2" t="n">
+        <v>44411</v>
+      </c>
       <c r="O54" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>Hospitalization</t>
+          <t>Death</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Hospitalization</t>
+          <t>Death</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -5873,12 +5883,12 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Cox proportional hazards model</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Prospective cohort</t>
+          <t>Phase 3 clinical trial</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -5888,13 +5898,19 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>Goldber2021_protection_of_previous_SARS-CoV-2</t>
+          <t>Romani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="inlineStr"/>
+      <c r="Z54" t="n">
+        <v>62.67744067914551</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>-40.65671476080679</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>90.09664461005281</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -5902,7 +5918,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BNT162b2</t>
+          <t>SOBERANA Plus</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -5911,56 +5927,50 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>94</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>94</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="F55" t="n">
         <v>95</v>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="G55" t="n">
+        <v>13883</v>
+      </c>
+      <c r="H55" t="n">
+        <v>14303</v>
+      </c>
+      <c r="I55" t="n">
+        <v>15</v>
+      </c>
+      <c r="J55" t="n">
+        <v>155</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" s="2" t="n">
+        <v>44411</v>
+      </c>
       <c r="O55" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Severe disease </t>
+          <t>Symptomatic SARS-CoV-2</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Severe</t>
+          <t>Symptomatic</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -5971,12 +5981,12 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Cox proportional hazards model</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Prospective cohort</t>
+          <t>Phase 3 clinical trial</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -5986,13 +5996,19 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>Goldber2021_protection_of_previous_SARS-CoV-2</t>
+          <t>Romani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="inlineStr"/>
+      <c r="Z55" t="n">
+        <v>90.02981134968969</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>83.07018115428563</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>94.12842732526107</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -6000,7 +6016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BNT162b2</t>
+          <t>SOBERANA Plus</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6009,56 +6025,54 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>94</v>
-      </c>
-      <c r="E56" t="n">
-        <v>93</v>
-      </c>
-      <c r="F56" t="n">
-        <v>95</v>
-      </c>
-      <c r="G56" t="inlineStr">
+        <v>100</v>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="G56" t="n">
+        <v>13883</v>
+      </c>
+      <c r="H56" t="n">
+        <v>14303</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>6</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="N56" s="2" t="n">
+        <v>44411</v>
+      </c>
       <c r="O56" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Severe disease</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Severe</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -6069,12 +6083,12 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Cox proportional hazards model</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Prospective cohort</t>
+          <t>Phase 3 clinical trial</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -6084,13 +6098,19 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>Goldber2021_protection_of_previous_SARS-CoV-2</t>
+          <t>Romani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr"/>
+      <c r="Z56" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -6098,102 +6118,100 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>AZD1222</t>
+          <t>SOBERANA Plus</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Beta</t>
+          <t>SARS-CoV-2</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="E57" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="F57" t="n">
-        <v>84.5</v>
+        <v>100</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="G57" t="n">
-        <v>4244</v>
+        <v>13883</v>
       </c>
       <c r="H57" t="n">
-        <v>4290</v>
+        <v>14303</v>
       </c>
       <c r="I57" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>40</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2</v>
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>31/05/2020</t>
-        </is>
+      <c r="N57" s="2" t="n">
+        <v>44411</v>
       </c>
       <c r="O57" t="n">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>Symptomatic</t>
+          <t>Death</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Symptomatic</t>
+          <t>Death</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr">
         <is>
-          <t>1 - relative risk</t>
+          <t>1-hazard ratio</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Cox proportional hazards model</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Post Phase 3 study</t>
+          <t>Phase 3 clinical trial</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>Peer-reviewed</t>
+          <t>Pre-print</t>
         </is>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>Emary2021_Efficacy of ChAdOx1 nCoV-19 (AZD1222) vaccine against</t>
-        </is>
-      </c>
-      <c r="Y57" t="n">
-        <v>21</v>
-      </c>
+          <t>Romani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="n">
-        <v>69.67483506126295</v>
+        <v>100</v>
       </c>
       <c r="AA57" t="n">
-        <v>42.27468888425425</v>
+        <v>0</v>
       </c>
       <c r="AB57" t="n">
-        <v>84.06910918647674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -6202,66 +6220,66 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AZD1222</t>
+          <t>Ad26.COV2.S</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Non beta</t>
+          <t>SARS-CoV-2</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>81.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>67.90000000000001</v>
+        <v>59</v>
       </c>
       <c r="F58" t="n">
-        <v>80.40000000000001</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="G58" t="n">
-        <v>4244</v>
+        <v>19630</v>
       </c>
       <c r="H58" t="n">
-        <v>4290</v>
+        <v>19691</v>
       </c>
       <c r="I58" t="n">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="J58" t="n">
-        <v>80</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>351</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2</v>
       </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>31/05/2020</t>
+          <t>21/09/2020</t>
         </is>
       </c>
       <c r="O58" t="n">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>USA, South africa, Brazil, Colombia, Argentina, Peru, Chile, Mexico</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
+          <t>Symptomatic infection</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
           <t>Symptomatic</t>
         </is>
       </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>Symptomatic</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr"/>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
       <c r="T58" t="inlineStr">
         <is>
           <t>1 - relative risk</t>
@@ -6269,12 +6287,12 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Exact Poisson regression</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Post Phase 3 study</t>
+          <t>Phase 3 clinical trial</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -6284,18 +6302,18 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>Emary2021_Efficacy of ChAdOx1 nCoV-19 (AZD1222) vaccine against</t>
+          <t>Sadoff2021_Safety_and_efficacy.pdf; https://www.fda.gov/media/146217/download</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="n">
-        <v>81.04677191328935</v>
+        <v>66.56308371540159</v>
       </c>
       <c r="AA58" t="n">
-        <v>67.15445679650007</v>
+        <v>58.81975192236399</v>
       </c>
       <c r="AB58" t="n">
-        <v>89.06320858567504</v>
+        <v>72.85039739159764</v>
       </c>
     </row>
     <row r="59">
@@ -6304,7 +6322,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ZF2001</t>
+          <t>Ad26.COV2.S</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6313,66 +6331,70 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>75.7</v>
+        <v>64.8</v>
       </c>
       <c r="E59" t="n">
-        <v>71</v>
+        <v>55.8</v>
       </c>
       <c r="F59" t="n">
-        <v>79.8</v>
+        <v>72.2</v>
       </c>
       <c r="G59" t="n">
-        <v>12625</v>
+        <v>19630</v>
       </c>
       <c r="H59" t="n">
-        <v>12568</v>
+        <v>19691</v>
       </c>
       <c r="I59" t="n">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="J59" t="n">
-        <v>580</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+        <v>288</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2</v>
+      </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" s="2" t="n">
-        <v>44177</v>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>21/09/2020</t>
+        </is>
       </c>
       <c r="O59" t="n">
-        <v>365</v>
+        <v>123</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Uzbekistan, Pakistan, Indonesia and Ecuador</t>
+          <t>USA, South africa, Brazil, Colombia, Argentina, Peru, Chile, Mexico</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>Symptomatic</t>
+          <t>Symptomatic -moderate</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Symptomatic</t>
+          <t>Moderate</t>
         </is>
       </c>
       <c r="S59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>1 - Incidence rate ratio</t>
+          <t>1 - relative risk</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>Exact possion regression</t>
+          <t>Exact Poisson regression</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Phase 3</t>
+          <t>Phase 3 clinical trial</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
@@ -6382,18 +6404,18 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>Dai2022_efficacy_and_safety_of_the_RBD-Dimer-based</t>
+          <t>Sadoff2021_Safety_and_efficacy.pdf; https://www.fda.gov/media/146217/download</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="n">
-        <v>72.88161147149196</v>
+        <v>64.4732764476142</v>
       </c>
       <c r="AA59" t="n">
-        <v>67.72284375778338</v>
+        <v>55.5104771873441</v>
       </c>
       <c r="AB59" t="n">
-        <v>77.21586775289558</v>
+        <v>71.630442257551</v>
       </c>
     </row>
     <row r="60">
@@ -6402,7 +6424,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ZF2001</t>
+          <t>Ad26.COV2.S</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6411,43 +6433,47 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>87.59999999999999</v>
+        <v>76.7</v>
       </c>
       <c r="E60" t="n">
-        <v>70.59999999999999</v>
+        <v>54.6</v>
       </c>
       <c r="F60" t="n">
-        <v>95.7</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>12625</v>
+        <v>19630</v>
       </c>
       <c r="H60" t="n">
-        <v>12568</v>
+        <v>19691</v>
       </c>
       <c r="I60" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J60" t="n">
-        <v>43</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2</v>
+      </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" s="2" t="n">
-        <v>44177</v>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>21/09/2020</t>
+        </is>
       </c>
       <c r="O60" t="n">
-        <v>365</v>
+        <v>123</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Uzbekistan, Pakistan, Indonesia and Ecuador</t>
+          <t>USA, South africa, Brazil, Colombia, Argentina, Peru, Chile, Mexico</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>Severe-Critical</t>
+          <t>Symptomatic -Severe-critical</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -6455,22 +6481,20 @@
           <t>Critical</t>
         </is>
       </c>
-      <c r="S60" t="n">
-        <v>1</v>
-      </c>
+      <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr">
         <is>
-          <t>1 - Incidence rate ratio</t>
+          <t>1 - relative risk</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>Exact possion regression</t>
+          <t>Exact Poisson regression</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Phase 3</t>
+          <t>Phase 3 clinical trial</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -6480,18 +6504,18 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>Dai2022_efficacy_and_safety_of_the_RBD-Dimer-based</t>
+          <t>Sadoff2021_Safety_and_efficacy.pdf; https://www.fda.gov/media/146217/download</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="n">
-        <v>86.10950955560672</v>
+        <v>76.59415860078111</v>
       </c>
       <c r="AA60" t="n">
-        <v>67.37701053188043</v>
+        <v>58.13734470125546</v>
       </c>
       <c r="AB60" t="n">
-        <v>94.08559031739459</v>
+        <v>86.91355319685567</v>
       </c>
     </row>
     <row r="61">
@@ -6500,7 +6524,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ZF2001</t>
+          <t>mRNA1273</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6509,66 +6533,68 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>86.5</v>
+        <v>93.2</v>
       </c>
       <c r="E61" t="n">
-        <v>38.9</v>
+        <v>91</v>
       </c>
       <c r="F61" t="n">
-        <v>98.5</v>
+        <v>94.8</v>
       </c>
       <c r="G61" t="n">
-        <v>12625</v>
+        <v>15209</v>
       </c>
       <c r="H61" t="n">
-        <v>12568</v>
+        <v>15206</v>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="J61" t="n">
-        <v>12</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
+        <v>744</v>
+      </c>
+      <c r="K61" t="n">
+        <v>21</v>
+      </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" s="2" t="n">
-        <v>44177</v>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>27/07/2020</t>
+        </is>
       </c>
       <c r="O61" t="n">
-        <v>365</v>
+        <v>88</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Uzbekistan, Pakistan, Indonesia and Ecuador</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Covid-19 illness</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Death</t>
-        </is>
-      </c>
-      <c r="S61" t="n">
-        <v>1</v>
-      </c>
+          <t>Symptomatic</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr">
         <is>
-          <t>1 - Incidence rate ratio</t>
+          <t>1-hazard ratio</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>Exact possion regression</t>
+          <t>Cox proportional hazards model</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Phase 3</t>
+          <t>Phase 4</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
@@ -6578,18 +6604,18 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>Dai2022_efficacy_and_safety_of_the_RBD-Dimer-based</t>
+          <t>Sahly2021_efficacy_of_the_mRNA-1273_SARS_C0V-2_vaccine</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="n">
-        <v>83.4085808580858</v>
+        <v>92.60898505907298</v>
       </c>
       <c r="AA61" t="n">
-        <v>25.882132651922</v>
+        <v>90.28936184262531</v>
       </c>
       <c r="AB61" t="n">
-        <v>96.28598070894419</v>
+        <v>94.37450958714591</v>
       </c>
     </row>
     <row r="62">
@@ -6598,75 +6624,77 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ZF2001</t>
+          <t>mRNA1273</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Delta</t>
+          <t>SARS-CoV-2</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>76.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="E62" t="n">
-        <v>70</v>
+        <v>92.8</v>
       </c>
       <c r="F62" t="n">
-        <v>81.2</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G62" t="n">
-        <v>12625</v>
+        <v>15209</v>
       </c>
       <c r="H62" t="n">
-        <v>12568</v>
+        <v>15206</v>
       </c>
       <c r="I62" t="n">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>358</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
+        <v>106</v>
+      </c>
+      <c r="K62" t="n">
+        <v>21</v>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" s="2" t="n">
-        <v>44177</v>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>27/07/2020</t>
+        </is>
       </c>
       <c r="O62" t="n">
-        <v>365</v>
+        <v>88</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Uzbekistan, Pakistan, Indonesia and Ecuador</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Severe disease</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Symptomatic</t>
-        </is>
-      </c>
-      <c r="S62" t="n">
-        <v>1</v>
-      </c>
+          <t>Severe</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr">
         <is>
-          <t>1 - Incidence rate ratio</t>
+          <t>1-hazard ratio</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>Exact possion regression</t>
+          <t>Cox proportional hazards model</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Phase 3</t>
+          <t>Phase 4</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
@@ -6676,18 +6704,18 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>Dai2022_efficacy_and_safety_of_the_RBD-Dimer-based</t>
+          <t>Sahly2021_efficacy_of_the_mRNA-1273_SARS_C0V-2_vaccine</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="n">
-        <v>73.30542618507661</v>
+        <v>98.11357972005156</v>
       </c>
       <c r="AA62" t="n">
-        <v>66.6060670704175</v>
+        <v>92.35965000277866</v>
       </c>
       <c r="AB62" t="n">
-        <v>78.66078629722809</v>
+        <v>99.5342384218138</v>
       </c>
     </row>
     <row r="63">
@@ -6696,75 +6724,77 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ZF2001</t>
+          <t>mRNA1273</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Alpha</t>
+          <t>SARS-CoV-2</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>88.3</v>
+        <v>63</v>
       </c>
       <c r="E63" t="n">
-        <v>66.8</v>
+        <v>56.6</v>
       </c>
       <c r="F63" t="n">
-        <v>97</v>
+        <v>68.5</v>
       </c>
       <c r="G63" t="n">
-        <v>12625</v>
+        <v>15209</v>
       </c>
       <c r="H63" t="n">
-        <v>12568</v>
+        <v>15206</v>
       </c>
       <c r="I63" t="n">
-        <v>4</v>
+        <v>214</v>
       </c>
       <c r="J63" t="n">
-        <v>31</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
+        <v>498</v>
+      </c>
+      <c r="K63" t="n">
+        <v>21</v>
+      </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" s="2" t="n">
-        <v>44177</v>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>27/07/2020</t>
+        </is>
       </c>
       <c r="O63" t="n">
-        <v>365</v>
+        <v>88</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Uzbekistan, Pakistan, Indonesia and Ecuador</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Asymptotic Infection</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Symptomatic</t>
-        </is>
-      </c>
-      <c r="S63" t="n">
-        <v>1</v>
-      </c>
+          <t>Asymptomatic</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr">
         <is>
-          <t>1 - Incidence rate ratio</t>
+          <t>1-hazard ratio</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>Exact possion regression</t>
+          <t>Cox proportional hazards model</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Phase 3</t>
+          <t>Phase 4</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -6774,18 +6804,18 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>Dai2022_efficacy_and_safety_of_the_RBD-Dimer-based</t>
+          <t>Sahly2021_efficacy_of_the_mRNA-1273_SARS_C0V-2_vaccine</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="n">
-        <v>87.15503034174385</v>
+        <v>57.03658872454774</v>
       </c>
       <c r="AA63" t="n">
-        <v>63.62188125253424</v>
+        <v>49.6515099307723</v>
       </c>
       <c r="AB63" t="n">
-        <v>95.46449208473663</v>
+        <v>63.33842969499857</v>
       </c>
     </row>
     <row r="64">
@@ -6794,52 +6824,52 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ZF2001</t>
+          <t>CoronaVac</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Kappa</t>
+          <t>SARS-CoV-2</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>75.2</v>
+        <v>83.5</v>
       </c>
       <c r="E64" t="n">
-        <v>55.3</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>87</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>12625</v>
+        <v>6646</v>
       </c>
       <c r="H64" t="n">
-        <v>12568</v>
+        <v>3568</v>
       </c>
       <c r="I64" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J64" t="n">
-        <v>53</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
+        <v>32</v>
+      </c>
+      <c r="K64" t="n">
+        <v>6</v>
+      </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" s="2" t="n">
-        <v>44177</v>
-      </c>
+      <c r="N64" t="inlineStr"/>
       <c r="O64" t="n">
-        <v>365</v>
+        <v>113</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Uzbekistan, Pakistan, Indonesia and Ecuador</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Symptomatic Covid-19</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -6847,22 +6877,20 @@
           <t>Symptomatic</t>
         </is>
       </c>
-      <c r="S64" t="n">
-        <v>1</v>
-      </c>
+      <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr">
         <is>
-          <t>1 - Incidence rate ratio</t>
+          <t>1-incidence rate ratio</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>Exact possion regression</t>
+          <t>Person-time analysis</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Phase 3</t>
+          <t>Phase 3 clinical trial</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -6872,18 +6900,18 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>Dai2022_efficacy_and_safety_of_the_RBD-Dimer-based</t>
+          <t>Tanriover2021_Efficacy_and_safety_of_an_inactivated_whole-virion</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="n">
-        <v>71.82589202316458</v>
+        <v>84.90069214565152</v>
       </c>
       <c r="AA64" t="n">
-        <v>50.04620142982235</v>
+        <v>68.40330878435911</v>
       </c>
       <c r="AB64" t="n">
-        <v>84.10970971156001</v>
+        <v>92.78439960297074</v>
       </c>
     </row>
     <row r="65">
@@ -6892,75 +6920,75 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ZF2001</t>
+          <t>BNT162b2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Mixed variants</t>
+          <t>SARS-CoV-2</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>71.90000000000001</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>60.1</v>
+        <v>88.8</v>
       </c>
       <c r="F65" t="n">
-        <v>80.5</v>
+        <v>93.2</v>
       </c>
       <c r="G65" t="n">
-        <v>12625</v>
+        <v>20334</v>
       </c>
       <c r="H65" t="n">
-        <v>12568</v>
+        <v>20794</v>
       </c>
       <c r="I65" t="n">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="J65" t="n">
-        <v>138</v>
+        <v>873</v>
       </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" s="2" t="n">
-        <v>44177</v>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>27/07/2020</t>
+        </is>
       </c>
       <c r="O65" t="n">
-        <v>365</v>
+        <v>28</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Uzbekistan, Pakistan, Indonesia and Ecuador</t>
+          <t>USA, Argentina, Brazil, south africa. Germany and turkey</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>Death</t>
+          <t>Documented infection</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Symptomatic</t>
-        </is>
-      </c>
-      <c r="S65" t="n">
-        <v>1</v>
-      </c>
+          <t>Documented infection</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr">
         <is>
-          <t>1 - Incidence rate ratio</t>
+          <t>1-incidence rate ratio</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>Exact possion regression</t>
+          <t>Clopper-Pearson</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Phase 3</t>
+          <t>Post Phase 3 study</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
@@ -6970,18 +6998,20 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>Dai2022_efficacy_and_safety_of_the_RBD-Dimer-based</t>
-        </is>
-      </c>
-      <c r="Y65" t="inlineStr"/>
+          <t>Thomas2021_Safety_and_Efficacy_of_the_BNT162b2_mRNA_Covid-19_vaccine_through_6_Months</t>
+        </is>
+      </c>
+      <c r="Y65" t="n">
+        <v>24</v>
+      </c>
       <c r="Z65" t="n">
-        <v>68.98125986511694</v>
+        <v>90.51175269899888</v>
       </c>
       <c r="AA65" t="n">
-        <v>56.35839106041583</v>
+        <v>88.09583267967565</v>
       </c>
       <c r="AB65" t="n">
-        <v>77.9530988216455</v>
+        <v>92.43736798866651</v>
       </c>
     </row>
     <row r="66">
@@ -6990,7 +7020,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CoVLP</t>
+          <t>BNT162b2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6999,68 +7029,66 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>69.5</v>
+        <v>97</v>
       </c>
       <c r="E66" t="n">
-        <v>56.7</v>
+        <v>80.3</v>
       </c>
       <c r="F66" t="n">
-        <v>78.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G66" t="n">
-        <v>12074</v>
+        <v>20334</v>
       </c>
       <c r="H66" t="n">
-        <v>12067</v>
+        <v>20794</v>
       </c>
       <c r="I66" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>15/03/2021</t>
+          <t>27/07/2020</t>
         </is>
       </c>
       <c r="O66" t="n">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Argentina, Brazil, Canada, Mexico, US and UK</t>
+          <t>USA, Argentina, Brazil, south africa. Germany and turkey</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>Symptomatic</t>
+          <t>Severe disease</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Symptomatic</t>
-        </is>
-      </c>
-      <c r="S66" t="n">
-        <v>1</v>
-      </c>
+          <t>Severe</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr">
         <is>
-          <t>1 - Incidence rate ratio</t>
+          <t>1-incidence rate ratio</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>Exact possion regression</t>
+          <t>Clopper-Pearson</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Phase 3</t>
+          <t>Post Phase 3 study</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
@@ -7070,18 +7098,20 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>Hager2022_Efficacy_and_Safety_of_a_recombiant_Plant</t>
-        </is>
-      </c>
-      <c r="Y66" t="inlineStr"/>
+          <t>Thomas2021_Safety_and_Efficacy_of_the_BNT162b2_mRNA_Covid-19_vaccine_through_6_Months</t>
+        </is>
+      </c>
+      <c r="Y66" t="n">
+        <v>25</v>
+      </c>
       <c r="Z66" t="n">
-        <v>68.01855226105683</v>
+        <v>96.59125930297367</v>
       </c>
       <c r="AA66" t="n">
-        <v>54.38153064198021</v>
+        <v>75.00569400062713</v>
       </c>
       <c r="AB66" t="n">
-        <v>77.57897154655535</v>
+        <v>99.53511359187748</v>
       </c>
     </row>
     <row r="67">
@@ -7090,77 +7120,79 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CoVLP</t>
+          <t>BNT162b2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SARS-CoV-2</t>
+          <t>Beta</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>76.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E67" t="n">
-        <v>51.5</v>
+        <v>53.5</v>
       </c>
       <c r="F67" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G67" t="n">
-        <v>12074</v>
+        <v>20334</v>
       </c>
       <c r="H67" t="n">
-        <v>12067</v>
-      </c>
-      <c r="I67" t="n">
-        <v>8</v>
-      </c>
-      <c r="J67" t="n">
-        <v>33</v>
+        <v>20794</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>15/03/2021</t>
+          <t>27/07/2020</t>
         </is>
       </c>
       <c r="O67" t="n">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Argentina, Brazil, Canada, Mexico, US and UK</t>
+          <t>USA, Argentina, Brazil, south africa. Germany and turkey</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Documented infection</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="S67" t="n">
-        <v>1</v>
-      </c>
+          <t>Documented infection</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr">
         <is>
-          <t>1 - Incidence rate ratio</t>
+          <t>1-incidence rate ratio</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>Exact possion regression</t>
+          <t>Clopper-Pearson</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Phase 3</t>
+          <t>Post Phase 3 study</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
@@ -7170,19 +7202,13 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>Hager2022_Efficacy_and_Safety_of_a_recombiant_Plant</t>
+          <t>Thomas2021_Safety_and_Efficacy_of_the_BNT162b2_mRNA_Covid-19_vaccine_through_6_Months</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="n">
-        <v>75.77163050080063</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>47.5679106715358</v>
-      </c>
-      <c r="AB67" t="n">
-        <v>88.80430102809086</v>
-      </c>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -7190,7 +7216,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CoVLP</t>
+          <t>AZD1222</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -7199,70 +7225,68 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>100</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>-63.7</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>54.8</v>
+      </c>
+      <c r="F68" t="n">
+        <v>80.59999999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>12074</v>
+        <v>5807</v>
       </c>
       <c r="H68" t="n">
-        <v>12067</v>
+        <v>5829</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J68" t="n">
-        <v>3</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="K68" t="n">
+        <v>16</v>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>15/03/2021</t>
+          <t>28/09/2020</t>
         </is>
       </c>
       <c r="O68" t="n">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Argentina, Brazil, Canada, Mexico, US and UK</t>
+          <t>UK,Brazil, South africa</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>Severe</t>
+          <t>Symptomatic covid-19</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Severe</t>
-        </is>
-      </c>
-      <c r="S68" t="n">
-        <v>1</v>
-      </c>
+          <t>Symptomatic</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr">
         <is>
-          <t>1 - Incidence rate ratio</t>
+          <t>1 - relative risk</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>Exact possion regression</t>
+          <t>Poisson regression with robust error variance</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Phase 3</t>
+          <t>Phase 3 clinical trial</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
@@ -7272,18 +7296,18 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>Hager2022_Efficacy_and_Safety_of_a_recombiant_Plant</t>
+          <t>Voysey2021_Safety_and_efficacy_of</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="n">
-        <v>100</v>
+        <v>70.18449907673737</v>
       </c>
       <c r="AA68" t="n">
-        <v>0</v>
+        <v>55.25654664851773</v>
       </c>
       <c r="AB68" t="n">
-        <v>0</v>
+        <v>80.13197398238762</v>
       </c>
     </row>
     <row r="69">
@@ -7292,79 +7316,77 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ZyCov-D</t>
+          <t>AZD1222*</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Mixed variants</t>
+          <t>SARS-CoV-2</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>66.59999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="E69" t="n">
-        <v>47.6</v>
+        <v>60.3</v>
       </c>
       <c r="F69" t="n">
-        <v>80.7</v>
+        <v>91.2</v>
       </c>
       <c r="G69" t="n">
-        <v>12350</v>
+        <v>1293</v>
       </c>
       <c r="H69" t="n">
-        <v>12320</v>
+        <v>1356</v>
       </c>
       <c r="I69" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J69" t="n">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="K69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>16/01/2021</t>
+          <t>23/04/2020</t>
         </is>
       </c>
       <c r="O69" t="n">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>UK, Brazil, South africa</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
+          <t>Symptotic Covid-19</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
           <t>Symptomatic</t>
         </is>
       </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>Symptomatic</t>
-        </is>
-      </c>
-      <c r="S69" t="n">
-        <v>1</v>
-      </c>
+      <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr">
         <is>
-          <t>1 - Incidence rate ratio</t>
+          <t>1-relative risk</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Poisson regression</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Phase 3</t>
+          <t>Booster-dose</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
@@ -7374,20 +7396,18 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>Khobragade2022_Efficacy_safety_and_immunogenicity_of_the_DNA_SAR</t>
-        </is>
-      </c>
-      <c r="Y69" t="n">
-        <v>24</v>
-      </c>
+          <t>Voysey2021_Single-dose_administration_and_the_influence</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="n">
-        <v>67.29275900975642</v>
+        <v>81.35601959267854</v>
       </c>
       <c r="AA69" t="n">
-        <v>45.83628760237287</v>
+        <v>60.60268674396234</v>
       </c>
       <c r="AB69" t="n">
-        <v>80.24944070782092</v>
+        <v>91.17711395268007</v>
       </c>
     </row>
     <row r="70">
@@ -7396,68 +7416,72 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BNT162b2*</t>
+          <t>AZD1222*</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Mixed variants</t>
+          <t>SARS-CoV-2</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>94.8</v>
+        <v>55.1</v>
       </c>
       <c r="E70" t="n">
-        <v>88.40000000000001</v>
+        <v>33</v>
       </c>
       <c r="F70" t="n">
-        <v>98.09999999999999</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>5056</v>
+        <v>3890</v>
       </c>
       <c r="H70" t="n">
-        <v>5019</v>
+        <v>3856</v>
       </c>
       <c r="I70" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="J70" t="n">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="K70" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>23/04/2020</t>
+        </is>
+      </c>
+      <c r="O70" t="n">
+        <v>227</v>
+      </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>UK, Brazil, South africa</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
+          <t>Symptotic Covid-19</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
           <t>Symptomatic</t>
         </is>
       </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>Symptomatic</t>
-        </is>
-      </c>
-      <c r="S70" t="n">
-        <v>1</v>
-      </c>
+      <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr">
         <is>
-          <t>1 - Incidence rate ratio</t>
+          <t>1-relative risk</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>Double sided Clopper-Pearson</t>
+          <t>Poisson regression</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -7472,436 +7496,18 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>Moreira2022_Safety_and_efficacy_of_a_third_dose_of_BNT162b2.pdf</t>
-        </is>
-      </c>
-      <c r="Y70" t="n">
-        <v>25</v>
-      </c>
+          <t>Voysey2021_Single-dose_administration_and_the_influence</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="n">
-        <v>94.68206091772153</v>
+        <v>54.34988499526451</v>
       </c>
       <c r="AA70" t="n">
-        <v>87.92089778762532</v>
+        <v>32.04096892784178</v>
       </c>
       <c r="AB70" t="n">
-        <v>97.65872698271794</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Ad26.COV2.S*</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>SARS-CoV-2</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="E71" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="F71" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="G71" t="n">
-        <v>6024</v>
-      </c>
-      <c r="H71" t="n">
-        <v>5615</v>
-      </c>
-      <c r="I71" t="n">
-        <v>14</v>
-      </c>
-      <c r="J71" t="n">
-        <v>53</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Belgium, Brazil, Coloumbia, France, Germany, Philippines, South africa, Spain, UK and US </t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>Symptomatic</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>Symptomatic</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>1 - Incidence rate ratio</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>Exact possion regression</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>Booster-dose</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>Pre-print</t>
-        </is>
-      </c>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>Hardt2022_Efficacy_and_safety_of_a_booster_regimen</t>
-        </is>
-      </c>
-      <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="n">
-        <v>75.37836077075346</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>55.67848689612656</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>86.32210238593612</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Ad26.COV2.S*</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>SARS-CoV-2</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>70.7</v>
-      </c>
-      <c r="E72" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="F72" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="G72" t="n">
-        <v>6024</v>
-      </c>
-      <c r="H72" t="n">
-        <v>5615</v>
-      </c>
-      <c r="I72" t="n">
-        <v>14</v>
-      </c>
-      <c r="J72" t="n">
-        <v>44</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Belgium, Brazil, Coloumbia, France, Germany, Philippines, South africa, Spain, UK and US </t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>Moderate</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>1 - Incidence rate ratio</t>
-        </is>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>Exact possion regression</t>
-        </is>
-      </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>Booster-dose</t>
-        </is>
-      </c>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>Pre-print</t>
-        </is>
-      </c>
-      <c r="X72" t="inlineStr">
-        <is>
-          <t>Hardt2022_Efficacy_and_safety_of_a_booster_regimen</t>
-        </is>
-      </c>
-      <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="n">
-        <v>70.34211638295302</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>45.94237724206511</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>83.72865812873371</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Ad26.COV2.S*</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>SARS-CoV-2</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>100</v>
-      </c>
-      <c r="E73" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="F73" t="n">
-        <v>100</v>
-      </c>
-      <c r="G73" t="n">
-        <v>6024</v>
-      </c>
-      <c r="H73" t="n">
-        <v>5615</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>8</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Belgium, Brazil, Coloumbia, France, Germany, Philippines, South africa, Spain, UK and US </t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>Severe-Critical</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>Critical</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>1 - Incidence rate ratio</t>
-        </is>
-      </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>Exact possion regression</t>
-        </is>
-      </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>Booster-dose</t>
-        </is>
-      </c>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>Pre-print</t>
-        </is>
-      </c>
-      <c r="X73" t="inlineStr">
-        <is>
-          <t>Hardt2022_Efficacy_and_safety_of_a_booster_regimen</t>
-        </is>
-      </c>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Ad26.COV2.S*</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>SARS-CoV-2</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="E74" t="n">
-        <v>-6.4</v>
-      </c>
-      <c r="F74" t="n">
-        <v>59.8</v>
-      </c>
-      <c r="G74" t="n">
-        <v>6024</v>
-      </c>
-      <c r="H74" t="n">
-        <v>5615</v>
-      </c>
-      <c r="I74" t="n">
-        <v>40</v>
-      </c>
-      <c r="J74" t="n">
-        <v>56</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Belgium, Brazil, Coloumbia, France, Germany, Philippines, South africa, Spain, UK and US </t>
-        </is>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>Asymptomatic Infection</t>
-        </is>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>Asymptomatic</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>1 - Incidence rate ratio</t>
-        </is>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>Exact possion regression</t>
-        </is>
-      </c>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>Booster-dose</t>
-        </is>
-      </c>
-      <c r="W74" t="inlineStr">
-        <is>
-          <t>Pre-print</t>
-        </is>
-      </c>
-      <c r="X74" t="inlineStr">
-        <is>
-          <t>Hardt2022_Efficacy_and_safety_of_a_booster_regimen</t>
-        </is>
-      </c>
-      <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="n">
-        <v>33.42107759438436</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>0.2652253072337074</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>55.5545904390107</v>
+        <v>69.33545156444509</v>
       </c>
     </row>
   </sheetData>

--- a/rw_vaccine_details.xlsx
+++ b/rw_vaccine_details.xlsx
@@ -5692,7 +5692,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>Romani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
+          <t>ToledoRomani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr"/>
@@ -5794,7 +5794,7 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>Romani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
+          <t>ToledoRomani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
         </is>
       </c>
       <c r="Y53" t="n">
@@ -5898,7 +5898,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>Romani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
+          <t>ToledoRomani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr"/>
@@ -5996,7 +5996,7 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>Romani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
+          <t>ToledoRomani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr"/>
@@ -6098,7 +6098,7 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>Romani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
+          <t>ToledoRomani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr"/>
@@ -6200,7 +6200,7 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>Romani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
+          <t>ToledoRomani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr"/>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>Sahly2021_efficacy_of_the_mRNA-1273_SARS_C0V-2_vaccine</t>
+          <t>El2021_efficacy_of_the_mRNA-1273_SARS_C0V-2_vaccine</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr"/>
@@ -6804,7 +6804,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>Sahly2021_efficacy_of_the_mRNA-1273_SARS_C0V-2_vaccine</t>
+          <t>El2021_efficacy_of_the_mRNA-1273_SARS_C0V-2_vaccine</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr"/>

--- a/rw_vaccine_details.xlsx
+++ b/rw_vaccine_details.xlsx
@@ -1657,13 +1657,13 @@
       </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>100</v>
+        <v>94.43796319779074</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>-3.302327052537257</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>99.70052704259608</v>
       </c>
     </row>
     <row r="13">
@@ -2761,13 +2761,13 @@
       </c>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="n">
-        <v>100</v>
+        <v>97.15223914397328</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>50.66493499150665</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>99.83561911002404</v>
       </c>
     </row>
     <row r="24">
@@ -3061,13 +3061,13 @@
       </c>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="n">
-        <v>100</v>
+        <v>83.86268848251524</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>-296.1118075190292</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>99.34257747921377</v>
       </c>
     </row>
     <row r="27">
@@ -3161,13 +3161,13 @@
       </c>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="n">
-        <v>100</v>
+        <v>96.97505086197665</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>49.63835990348066</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>99.8183077979571</v>
       </c>
     </row>
     <row r="28">
@@ -3463,13 +3463,13 @@
       </c>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="n">
-        <v>100</v>
+        <v>85.72256728778468</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>-176.3903643897301</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>99.2624739820365</v>
       </c>
     </row>
     <row r="31">
@@ -4073,13 +4073,13 @@
       </c>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="n">
-        <v>100</v>
+        <v>94.5169636319258</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>5.021905453613229</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>99.68346714095279</v>
       </c>
     </row>
     <row r="37">
@@ -5095,13 +5095,13 @@
       </c>
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="n">
-        <v>100</v>
+        <v>99.2008996601827</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>86.7896061036983</v>
       </c>
       <c r="AB46" t="n">
-        <v>0</v>
+        <v>99.95166220189128</v>
       </c>
     </row>
     <row r="47">
@@ -5397,13 +5397,13 @@
       </c>
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="n">
-        <v>100</v>
+        <v>95.31787684795356</v>
       </c>
       <c r="AA49" t="n">
-        <v>0</v>
+        <v>20.11694832456909</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>99.72557035877897</v>
       </c>
     </row>
     <row r="50">
@@ -5499,13 +5499,13 @@
       </c>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="n">
-        <v>100</v>
+        <v>92.43657029284805</v>
       </c>
       <c r="AA50" t="n">
-        <v>0</v>
+        <v>-34.22888656146353</v>
       </c>
       <c r="AB50" t="n">
-        <v>0</v>
+        <v>99.57382147464335</v>
       </c>
     </row>
     <row r="51">
@@ -6103,13 +6103,13 @@
       </c>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="n">
-        <v>100</v>
+        <v>92.07499501362942</v>
       </c>
       <c r="AA56" t="n">
-        <v>0</v>
+        <v>-40.6707088182735</v>
       </c>
       <c r="AB56" t="n">
-        <v>0</v>
+        <v>99.5535267820742</v>
       </c>
     </row>
     <row r="57">
@@ -6205,13 +6205,13 @@
       </c>
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="n">
-        <v>100</v>
+        <v>93.93970206924602</v>
       </c>
       <c r="AA57" t="n">
-        <v>0</v>
+        <v>-4.991807763674427</v>
       </c>
       <c r="AB57" t="n">
-        <v>0</v>
+        <v>99.65018974535451</v>
       </c>
     </row>
     <row r="58">

--- a/rw_vaccine_details.xlsx
+++ b/rw_vaccine_details.xlsx
@@ -555,7 +555,7 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>unnamed:_23</t>
+          <t>platform</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
@@ -667,7 +667,11 @@
           <t>Baden2021_efficacy_and_safety_mRNA_vaccine</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>RNA</t>
+        </is>
+      </c>
       <c r="Z2" t="n">
         <v>94.05405405405406</v>
       </c>
@@ -773,7 +777,11 @@
           <t>Baden2021_efficacy_and_safety_mRNA_vaccine</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>RNA</t>
+        </is>
+      </c>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
@@ -865,8 +873,10 @@
           <t>Dai2022_efficacy_and_safety_of_the_RBD-Dimer-based</t>
         </is>
       </c>
-      <c r="Y4" t="n">
-        <v>2</v>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Protein subunit</t>
+        </is>
       </c>
       <c r="Z4" t="n">
         <v>72.88161147149196</v>
@@ -965,7 +975,11 @@
           <t>Dai2022_efficacy_and_safety_of_the_RBD-Dimer-based</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Protein subunit</t>
+        </is>
+      </c>
       <c r="Z5" t="n">
         <v>86.10950955560672</v>
       </c>
@@ -1063,7 +1077,11 @@
           <t>Dai2022_efficacy_and_safety_of_the_RBD-Dimer-based</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>Protein subunit</t>
+        </is>
+      </c>
       <c r="Z6" t="n">
         <v>83.4085808580858</v>
       </c>
@@ -1161,7 +1179,11 @@
           <t>Dai2022_efficacy_and_safety_of_the_RBD-Dimer-based</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Protein subunit</t>
+        </is>
+      </c>
       <c r="Z7" t="n">
         <v>73.30542618507661</v>
       </c>
@@ -1259,7 +1281,11 @@
           <t>Dai2022_efficacy_and_safety_of_the_RBD-Dimer-based</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>Protein subunit</t>
+        </is>
+      </c>
       <c r="Z8" t="n">
         <v>87.15503034174385</v>
       </c>
@@ -1357,7 +1383,11 @@
           <t>Dai2022_efficacy_and_safety_of_the_RBD-Dimer-based</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>Protein subunit</t>
+        </is>
+      </c>
       <c r="Z9" t="n">
         <v>71.82589202316458</v>
       </c>
@@ -1455,7 +1485,11 @@
           <t>Dai2022_efficacy_and_safety_of_the_RBD-Dimer-based</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>Protein subunit</t>
+        </is>
+      </c>
       <c r="Z10" t="n">
         <v>68.98125986511694</v>
       </c>
@@ -1555,7 +1589,11 @@
           <t>Dunkle2022_Efficacy_and_Safety_of_NVX_CoV_2373</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>Protein subunit</t>
+        </is>
+      </c>
       <c r="Z11" t="n">
         <v>88.87648935330785</v>
       </c>
@@ -1655,7 +1693,11 @@
           <t>Dunkle2022_Efficacy_and_Safety_of_NVX_CoV_2373</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Protein subunit</t>
+        </is>
+      </c>
       <c r="Z12" t="n">
         <v>94.43796319779074</v>
       </c>
@@ -1755,7 +1797,11 @@
           <t>Ella2021_efficacy_safety_and_lot_to_lot_immunogenicity_of_an_inactivated</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>Inactivated</t>
+        </is>
+      </c>
       <c r="Z13" t="n">
         <v>77.27563295861796</v>
       </c>
@@ -1855,7 +1901,11 @@
           <t>Ella2021_efficacy_safety_and_lot_to_lot_immunogenicity_of_an_inactivated</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>Inactivated</t>
+        </is>
+      </c>
       <c r="Z14" t="n">
         <v>93.30893637114862</v>
       </c>
@@ -1955,7 +2005,11 @@
           <t>Ella2021_efficacy_safety_and_lot_to_lot_immunogenicity_of_an_inactivated</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>Inactivated</t>
+        </is>
+      </c>
       <c r="Z15" t="n">
         <v>63.11669652186893</v>
       </c>
@@ -2055,7 +2109,11 @@
           <t>Ella2021_efficacy_safety_and_lot_to_lot_immunogenicity_of_an_inactivated</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>Inactivated</t>
+        </is>
+      </c>
       <c r="Z16" t="n">
         <v>70.38381672475622</v>
       </c>
@@ -2155,7 +2213,11 @@
           <t>Ella2021_efficacy_safety_and_lot_to_lot_immunogenicity_of_an_inactivated</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>Inactivated</t>
+        </is>
+      </c>
       <c r="Z17" t="n">
         <v>64.73628628037788</v>
       </c>
@@ -2255,7 +2317,11 @@
           <t>Ella2021_efficacy_safety_and_lot_to_lot_immunogenicity_of_an_inactivated</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>Inactivated</t>
+        </is>
+      </c>
       <c r="Z18" t="n">
         <v>89.96340455672294</v>
       </c>
@@ -2357,7 +2423,11 @@
           <t>Emary2021_Efficacy of ChAdOx1 nCoV-19 (AZD1222) vaccine against</t>
         </is>
       </c>
-      <c r="Y19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>NRVV</t>
+        </is>
+      </c>
       <c r="Z19" t="n">
         <v>69.67483506126295</v>
       </c>
@@ -2459,7 +2529,11 @@
           <t>Emary2021_Efficacy of ChAdOx1 nCoV-19 (AZD1222) vaccine against</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>NRVV</t>
+        </is>
+      </c>
       <c r="Z20" t="n">
         <v>81.04677191328935</v>
       </c>
@@ -2559,7 +2633,11 @@
           <t>Falsey2021_phase3_safety_and_efficacy_of_AZD1222</t>
         </is>
       </c>
-      <c r="Y21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>NRVV</t>
+        </is>
+      </c>
       <c r="Z21" t="n">
         <v>72.81647692133481</v>
       </c>
@@ -2659,7 +2737,11 @@
           <t>Falsey2021_phase3_safety_and_efficacy_of_AZD1222</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>NRVV</t>
+        </is>
+      </c>
       <c r="Z22" t="n">
         <v>72.61154706395239</v>
       </c>
@@ -2759,7 +2841,11 @@
           <t>Falsey2021_phase3_safety_and_efficacy_of_AZD1222</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>NRVV</t>
+        </is>
+      </c>
       <c r="Z23" t="n">
         <v>97.15223914397328</v>
       </c>
@@ -2859,7 +2945,11 @@
           <t>Falsey2021_phase3_safety_and_efficacy_of_AZD1222</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>NRVV</t>
+        </is>
+      </c>
       <c r="Z24" t="n">
         <v>94.62122069980749</v>
       </c>
@@ -2959,7 +3049,11 @@
           <t>Falsey2021_phase3_safety_and_efficacy_of_AZD1222</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>NRVV</t>
+        </is>
+      </c>
       <c r="Z25" t="n">
         <v>93.94887328728343</v>
       </c>
@@ -3059,7 +3153,11 @@
           <t>Falsey2021_phase3_safety_and_efficacy_of_AZD1222</t>
         </is>
       </c>
-      <c r="Y26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>NRVV</t>
+        </is>
+      </c>
       <c r="Z26" t="n">
         <v>83.86268848251524</v>
       </c>
@@ -3159,7 +3257,11 @@
           <t>Frenk2021_safety_immunogenicity_and_efficacy_of_the_BNT162b2</t>
         </is>
       </c>
-      <c r="Y27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>RNA</t>
+        </is>
+      </c>
       <c r="Z27" t="n">
         <v>96.97505086197665</v>
       </c>
@@ -3259,7 +3361,11 @@
           <t>Hager2022_Efficacy_and_Safety_of_a_recombiant_Plant</t>
         </is>
       </c>
-      <c r="Y28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>VLP</t>
+        </is>
+      </c>
       <c r="Z28" t="n">
         <v>68.01855226105683</v>
       </c>
@@ -3359,7 +3465,11 @@
           <t>Hager2022_Efficacy_and_Safety_of_a_recombiant_Plant</t>
         </is>
       </c>
-      <c r="Y29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>VLP</t>
+        </is>
+      </c>
       <c r="Z29" t="n">
         <v>75.77163050080063</v>
       </c>
@@ -3461,7 +3571,11 @@
           <t>Hager2022_Efficacy_and_Safety_of_a_recombiant_Plant</t>
         </is>
       </c>
-      <c r="Y30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>VLP</t>
+        </is>
+      </c>
       <c r="Z30" t="n">
         <v>85.72256728778468</v>
       </c>
@@ -3561,7 +3675,11 @@
           <t>Halperin2021_Final_efficacy_analysis_interim_safety_analysis_and</t>
         </is>
       </c>
-      <c r="Y31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>NRVV</t>
+        </is>
+      </c>
       <c r="Z31" t="n">
         <v>56.85957102387697</v>
       </c>
@@ -3661,7 +3779,11 @@
           <t>Halperin2021_Final_efficacy_analysis_interim_safety_analysis_and</t>
         </is>
       </c>
-      <c r="Y32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>NRVV</t>
+        </is>
+      </c>
       <c r="Z32" t="n">
         <v>63.5646332657832</v>
       </c>
@@ -3765,7 +3887,11 @@
           <t>Halperin2021_Final_efficacy_analysis_interim_safety_analysis_and</t>
         </is>
       </c>
-      <c r="Y33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>NRVV</t>
+        </is>
+      </c>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
@@ -3863,7 +3989,11 @@
           <t>Hardt2022_Efficacy_and_safety_of_a_booster_regimen</t>
         </is>
       </c>
-      <c r="Y34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>NRVV</t>
+        </is>
+      </c>
       <c r="Z34" t="n">
         <v>75.37836077075346</v>
       </c>
@@ -3967,7 +4097,11 @@
           <t>Hardt2022_Efficacy_and_safety_of_a_booster_regimen</t>
         </is>
       </c>
-      <c r="Y35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>NRVV</t>
+        </is>
+      </c>
       <c r="Z35" t="n">
         <v>70.34211638295302</v>
       </c>
@@ -4071,7 +4205,11 @@
           <t>Hardt2022_Efficacy_and_safety_of_a_booster_regimen</t>
         </is>
       </c>
-      <c r="Y36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>NRVV</t>
+        </is>
+      </c>
       <c r="Z36" t="n">
         <v>94.5169636319258</v>
       </c>
@@ -4175,7 +4313,11 @@
           <t>Hardt2022_Efficacy_and_safety_of_a_booster_regimen</t>
         </is>
       </c>
-      <c r="Y37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>NRVV</t>
+        </is>
+      </c>
       <c r="Z37" t="n">
         <v>33.42107759438436</v>
       </c>
@@ -4275,7 +4417,11 @@
           <t>Heath2021_Efficacy_of_the_NVX-CoV2373</t>
         </is>
       </c>
-      <c r="Y38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>Protein subunit</t>
+        </is>
+      </c>
       <c r="Z38" t="n">
         <v>89.58195710573833</v>
       </c>
@@ -4383,7 +4529,11 @@
           <t>Heath2021_Efficacy_of_the_NVX-CoV2373</t>
         </is>
       </c>
-      <c r="Y39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>Protein subunit</t>
+        </is>
+      </c>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
@@ -4483,7 +4633,11 @@
           <t>Kaabi2021_Effect_of_2_inactivated_SARS-CoV-2_vaccines_on_Symptomatic</t>
         </is>
       </c>
-      <c r="Y40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>Inactivated</t>
+        </is>
+      </c>
       <c r="Z40" t="n">
         <v>77.90622862391776</v>
       </c>
@@ -4589,7 +4743,11 @@
           <t>Kaabi2021_Effect_of_2_inactivated_SARS-CoV-2_vaccines_on_Symptomatic</t>
         </is>
       </c>
-      <c r="Y41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>Inactivated</t>
+        </is>
+      </c>
       <c r="Z41" t="n">
         <v>72.63361241352881</v>
       </c>
@@ -4697,7 +4855,11 @@
           <t>Kaabi2021_Effect_of_2_inactivated_SARS-CoV-2_vaccines_on_Symptomatic</t>
         </is>
       </c>
-      <c r="Y42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>Inactivated</t>
+        </is>
+      </c>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
@@ -4799,7 +4961,11 @@
           <t>Kaabi2021_Effect_of_2_inactivated_SARS-CoV-2_vaccines_on_Symptomatic</t>
         </is>
       </c>
-      <c r="Y43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>Inactivated</t>
+        </is>
+      </c>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
@@ -4895,7 +5061,11 @@
           <t>Khobragade2022_Efficacy_safety_and_immunogenicity_of_the_DNA_SAR</t>
         </is>
       </c>
-      <c r="Y44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>DNA</t>
+        </is>
+      </c>
       <c r="Z44" t="n">
         <v>67.29275900975642</v>
       </c>
@@ -4993,7 +5163,11 @@
           <t>Logunov2021_safety_and_efficacy</t>
         </is>
       </c>
-      <c r="Y45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>NRVV</t>
+        </is>
+      </c>
       <c r="Z45" t="n">
         <v>91.43590515530829</v>
       </c>
@@ -5093,7 +5267,11 @@
           <t>Logunov2021_safety_and_efficacy</t>
         </is>
       </c>
-      <c r="Y46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>NRVV</t>
+        </is>
+      </c>
       <c r="Z46" t="n">
         <v>99.2008996601827</v>
       </c>
@@ -5189,7 +5367,11 @@
           <t>Moreira2022_Safety_and_efficacy_of_a_third_dose_of_BNT162b2.pdf</t>
         </is>
       </c>
-      <c r="Y47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>RNA</t>
+        </is>
+      </c>
       <c r="Z47" t="n">
         <v>94.68206091772153</v>
       </c>
@@ -5291,8 +5473,10 @@
           <t>Palacios2021_CoronaVac_efficacy</t>
         </is>
       </c>
-      <c r="Y48" t="n">
-        <v>18</v>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>Inactivated</t>
+        </is>
       </c>
       <c r="Z48" t="n">
         <v>50.25261265418747</v>
@@ -5395,7 +5579,11 @@
           <t>Palacios2021_CoronaVac_efficacy</t>
         </is>
       </c>
-      <c r="Y49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>Inactivated</t>
+        </is>
+      </c>
       <c r="Z49" t="n">
         <v>95.31787684795356</v>
       </c>
@@ -5497,7 +5685,11 @@
           <t>Palacios2021_CoronaVac_efficacy</t>
         </is>
       </c>
-      <c r="Y50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>Inactivated</t>
+        </is>
+      </c>
       <c r="Z50" t="n">
         <v>92.43657029284805</v>
       </c>
@@ -5597,7 +5789,11 @@
           <t>Polack2020_safety_and_efficacy</t>
         </is>
       </c>
-      <c r="Y51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>RNA</t>
+        </is>
+      </c>
       <c r="Z51" t="n">
         <v>95.6774208216811</v>
       </c>
@@ -5695,7 +5891,11 @@
           <t>ToledoRomani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
         </is>
       </c>
-      <c r="Y52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>Protein subunit</t>
+        </is>
+      </c>
       <c r="Z52" t="n">
         <v>72.38933245941087</v>
       </c>
@@ -5797,8 +5997,10 @@
           <t>ToledoRomani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
         </is>
       </c>
-      <c r="Y53" t="n">
-        <v>21</v>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>Protein subunit</t>
+        </is>
       </c>
       <c r="Z53" t="n">
         <v>66.82439171479599</v>
@@ -5901,7 +6103,11 @@
           <t>ToledoRomani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
         </is>
       </c>
-      <c r="Y54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>Protein subunit</t>
+        </is>
+      </c>
       <c r="Z54" t="n">
         <v>62.67744067914551</v>
       </c>
@@ -5999,7 +6205,11 @@
           <t>ToledoRomani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
         </is>
       </c>
-      <c r="Y55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>Protein subunit</t>
+        </is>
+      </c>
       <c r="Z55" t="n">
         <v>90.02981134968969</v>
       </c>
@@ -6101,7 +6311,11 @@
           <t>ToledoRomani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
         </is>
       </c>
-      <c r="Y56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>Protein subunit</t>
+        </is>
+      </c>
       <c r="Z56" t="n">
         <v>92.07499501362942</v>
       </c>
@@ -6203,7 +6417,11 @@
           <t>ToledoRomani2021_Efficacy_and_safety_SOBERANA_02_a_COVID-19</t>
         </is>
       </c>
-      <c r="Y57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>Protein subunit</t>
+        </is>
+      </c>
       <c r="Z57" t="n">
         <v>93.93970206924602</v>
       </c>
@@ -6305,7 +6523,11 @@
           <t>Sadoff2021_Safety_and_efficacy.pdf; https://www.fda.gov/media/146217/download</t>
         </is>
       </c>
-      <c r="Y58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>NRVV</t>
+        </is>
+      </c>
       <c r="Z58" t="n">
         <v>66.56308371540159</v>
       </c>
@@ -6407,7 +6629,11 @@
           <t>Sadoff2021_Safety_and_efficacy.pdf; https://www.fda.gov/media/146217/download</t>
         </is>
       </c>
-      <c r="Y59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>NRVV</t>
+        </is>
+      </c>
       <c r="Z59" t="n">
         <v>64.4732764476142</v>
       </c>
@@ -6507,7 +6733,11 @@
           <t>Sadoff2021_Safety_and_efficacy.pdf; https://www.fda.gov/media/146217/download</t>
         </is>
       </c>
-      <c r="Y60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>NRVV</t>
+        </is>
+      </c>
       <c r="Z60" t="n">
         <v>76.59415860078111</v>
       </c>
@@ -6607,7 +6837,11 @@
           <t>Sahly2021_efficacy_of_the_mRNA-1273_SARS_C0V-2_vaccine</t>
         </is>
       </c>
-      <c r="Y61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>RNA</t>
+        </is>
+      </c>
       <c r="Z61" t="n">
         <v>92.60898505907298</v>
       </c>
@@ -6707,7 +6941,11 @@
           <t>El2021_efficacy_of_the_mRNA-1273_SARS_C0V-2_vaccine</t>
         </is>
       </c>
-      <c r="Y62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>RNA</t>
+        </is>
+      </c>
       <c r="Z62" t="n">
         <v>98.11357972005156</v>
       </c>
@@ -6807,7 +7045,11 @@
           <t>El2021_efficacy_of_the_mRNA-1273_SARS_C0V-2_vaccine</t>
         </is>
       </c>
-      <c r="Y63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>RNA</t>
+        </is>
+      </c>
       <c r="Z63" t="n">
         <v>57.03658872454774</v>
       </c>
@@ -6903,7 +7145,11 @@
           <t>Tanriover2021_Efficacy_and_safety_of_an_inactivated_whole-virion</t>
         </is>
       </c>
-      <c r="Y64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>Inactivated</t>
+        </is>
+      </c>
       <c r="Z64" t="n">
         <v>84.90069214565152</v>
       </c>
@@ -7001,8 +7247,10 @@
           <t>Thomas2021_Safety_and_Efficacy_of_the_BNT162b2_mRNA_Covid-19_vaccine_through_6_Months</t>
         </is>
       </c>
-      <c r="Y65" t="n">
-        <v>24</v>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>RNA</t>
+        </is>
       </c>
       <c r="Z65" t="n">
         <v>90.51175269899888</v>
@@ -7101,8 +7349,10 @@
           <t>Thomas2021_Safety_and_Efficacy_of_the_BNT162b2_mRNA_Covid-19_vaccine_through_6_Months</t>
         </is>
       </c>
-      <c r="Y66" t="n">
-        <v>25</v>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>RNA</t>
+        </is>
       </c>
       <c r="Z66" t="n">
         <v>96.59125930297367</v>
@@ -7205,7 +7455,11 @@
           <t>Thomas2021_Safety_and_Efficacy_of_the_BNT162b2_mRNA_Covid-19_vaccine_through_6_Months</t>
         </is>
       </c>
-      <c r="Y67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>RNA</t>
+        </is>
+      </c>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr"/>
@@ -7299,7 +7553,11 @@
           <t>Voysey2021_Safety_and_efficacy_of</t>
         </is>
       </c>
-      <c r="Y68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>NRVV</t>
+        </is>
+      </c>
       <c r="Z68" t="n">
         <v>70.18449907673737</v>
       </c>
@@ -7399,7 +7657,11 @@
           <t>Voysey2021_Single-dose_administration_and_the_influence</t>
         </is>
       </c>
-      <c r="Y69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>NRVV</t>
+        </is>
+      </c>
       <c r="Z69" t="n">
         <v>81.35601959267854</v>
       </c>
@@ -7499,7 +7761,11 @@
           <t>Voysey2021_Single-dose_administration_and_the_influence</t>
         </is>
       </c>
-      <c r="Y70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>NRVV</t>
+        </is>
+      </c>
       <c r="Z70" t="n">
         <v>54.34988499526451</v>
       </c>
